--- a/Métriques discriminantes/Tableau métriques/Evolutions métriques/Par journée/2021_2022/Skill Corner/physical_top20.xlsx
+++ b/Métriques discriminantes/Tableau métriques/Evolutions métriques/Par journée/2021_2022/Skill Corner/physical_top20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO39"/>
+  <dimension ref="A1:AN39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,202 +441,197 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_all</t>
+          <t>total_distance_per_Match</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_all</t>
+          <t>total_metersperminute_per_Match</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_all</t>
+          <t>running_distance_per_Match</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_all</t>
+          <t>hsr_distance_per_Match</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_all</t>
+          <t>hsr_count_per_Match</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_all</t>
+          <t>sprint_distance_per_Match</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_all</t>
+          <t>sprint_count_per_Match</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_all</t>
+          <t>hi_distance_per_Match</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_all</t>
+          <t>hi_count_per_Match</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_all</t>
+          <t>medaccel_count_per_Match</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_all</t>
+          <t>highaccel_count_per_Match</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_all</t>
+          <t>meddecel_count_per_Match</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_all</t>
+          <t>highdecel_count_per_Match</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>psv99</t>
+          <t>total_distance_per30tip</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_tip</t>
+          <t>total_metersperminute_per30tip</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_tip</t>
+          <t>running_distance_per30tip</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_tip</t>
+          <t>hsr_distance_per30tip</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_tip</t>
+          <t>hsr_count_per30tip</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_tip</t>
+          <t>sprint_distance_per30tip</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_tip</t>
+          <t>sprint_count_per30tip</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_tip</t>
+          <t>hi_distance_per30tip</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_tip</t>
+          <t>hi_count_per30tip</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_tip</t>
+          <t>medaccel_count_per30tip</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_tip</t>
+          <t>highaccel_count_per30tip</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_tip</t>
+          <t>meddecel_count_per30tip</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_tip</t>
+          <t>highdecel_count_per30tip</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_tip</t>
+          <t>total_distance_per30otip</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_otip</t>
+          <t>total_metersperminute_per30otip</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_otip</t>
+          <t>running_distance_per30otip</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_otip</t>
+          <t>hsr_distance_per30otip</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_otip</t>
+          <t>hsr_count_per30otip</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_otip</t>
+          <t>sprint_distance_per30otip</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_otip</t>
+          <t>sprint_count_per30otip</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_otip</t>
+          <t>hi_distance_per30otip</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_otip</t>
+          <t>hi_count_per30otip</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_otip</t>
+          <t>medaccel_count_per30otip</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_otip</t>
+          <t>highaccel_count_per30otip</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_otip</t>
+          <t>meddecel_count_per30otip</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_otip</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>highdecel_count_full_otip</t>
+          <t>highdecel_count_per30otip</t>
         </is>
       </c>
     </row>
@@ -684,85 +679,82 @@
         <v>144.6796916417534</v>
       </c>
       <c r="O2" t="n">
-        <v>353.0473774749374</v>
+        <v>52835.38743331451</v>
       </c>
       <c r="P2" t="n">
-        <v>31929.42658301937</v>
+        <v>1761.178425657915</v>
       </c>
       <c r="Q2" t="n">
-        <v>1761.178425657915</v>
+        <v>8914.139104518508</v>
       </c>
       <c r="R2" t="n">
-        <v>5167.243788568192</v>
+        <v>3722.451331022321</v>
       </c>
       <c r="S2" t="n">
-        <v>2037.083883050846</v>
+        <v>336.9410453181038</v>
       </c>
       <c r="T2" t="n">
-        <v>191.7906963176028</v>
+        <v>1349.132851663884</v>
       </c>
       <c r="U2" t="n">
-        <v>752.5013183390807</v>
+        <v>64.60960396614713</v>
       </c>
       <c r="V2" t="n">
-        <v>37.37251345192893</v>
+        <v>5071.58426497231</v>
       </c>
       <c r="W2" t="n">
-        <v>2789.585201389927</v>
+        <v>401.5516446742989</v>
       </c>
       <c r="X2" t="n">
-        <v>229.1632097695317</v>
+        <v>542.2452574908774</v>
       </c>
       <c r="Y2" t="n">
-        <v>323.8902983087714</v>
+        <v>32.67180072877716</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.98013164175111</v>
+        <v>370.6136711988772</v>
       </c>
       <c r="AA2" t="n">
-        <v>226.556979258792</v>
+        <v>59.32815901315958</v>
       </c>
       <c r="AB2" t="n">
-        <v>34.33669097013171</v>
+        <v>56126.31927078673</v>
       </c>
       <c r="AC2" t="n">
-        <v>33981.55285765346</v>
+        <v>1870.881106613891</v>
       </c>
       <c r="AD2" t="n">
-        <v>1870.881106613891</v>
+        <v>10840.09991296574</v>
       </c>
       <c r="AE2" t="n">
-        <v>6319.178150817852</v>
+        <v>4394.758060783451</v>
       </c>
       <c r="AF2" t="n">
-        <v>2495.871110239028</v>
+        <v>392.6896572472062</v>
       </c>
       <c r="AG2" t="n">
-        <v>226.7862477377229</v>
+        <v>1289.537668316511</v>
       </c>
       <c r="AH2" t="n">
-        <v>694.3414652085228</v>
+        <v>59.08238106543814</v>
       </c>
       <c r="AI2" t="n">
-        <v>34.23355226001549</v>
+        <v>5684.301520632458</v>
       </c>
       <c r="AJ2" t="n">
-        <v>3190.212575447551</v>
+        <v>451.776422629766</v>
       </c>
       <c r="AK2" t="n">
-        <v>261.0197999977384</v>
+        <v>602.4515609909903</v>
       </c>
       <c r="AL2" t="n">
-        <v>368.9195545857098</v>
+        <v>33.01882839843364</v>
       </c>
       <c r="AM2" t="n">
-        <v>19.88404550929389</v>
+        <v>418.3693340142082</v>
       </c>
       <c r="AN2" t="n">
-        <v>263.4898561001276</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>42.95092240726848</v>
+        <v>71.44820591281274</v>
       </c>
     </row>
     <row r="3">
@@ -809,85 +801,82 @@
         <v>151.7655006046078</v>
       </c>
       <c r="O3" t="n">
-        <v>356.1305086671579</v>
+        <v>51230.36666741405</v>
       </c>
       <c r="P3" t="n">
-        <v>33993.94962864209</v>
+        <v>1707.677401800875</v>
       </c>
       <c r="Q3" t="n">
-        <v>1707.677401800875</v>
+        <v>8347.446333792037</v>
       </c>
       <c r="R3" t="n">
-        <v>5240.432695523191</v>
+        <v>3405.683911630686</v>
       </c>
       <c r="S3" t="n">
-        <v>2013.025576831684</v>
+        <v>317.8319316470828</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0628713935798</v>
+        <v>1290.721549352027</v>
       </c>
       <c r="U3" t="n">
-        <v>778.6989148689239</v>
+        <v>61.79266868807078</v>
       </c>
       <c r="V3" t="n">
-        <v>38.35952574583722</v>
+        <v>4696.408785446565</v>
       </c>
       <c r="W3" t="n">
-        <v>2791.724491700609</v>
+        <v>379.6218450973147</v>
       </c>
       <c r="X3" t="n">
-        <v>233.422397139417</v>
+        <v>525.7785498158612</v>
       </c>
       <c r="Y3" t="n">
-        <v>342.3008594517847</v>
+        <v>30.8520583538788</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.87949949964007</v>
+        <v>365.8293763244382</v>
       </c>
       <c r="AA3" t="n">
-        <v>243.6116077633152</v>
+        <v>58.98140402873402</v>
       </c>
       <c r="AB3" t="n">
-        <v>37.28474681715294</v>
+        <v>54639.17482924886</v>
       </c>
       <c r="AC3" t="n">
-        <v>36309.44212749989</v>
+        <v>1821.301758659592</v>
       </c>
       <c r="AD3" t="n">
-        <v>1821.301758659592</v>
+        <v>10119.01209256443</v>
       </c>
       <c r="AE3" t="n">
-        <v>6475.542293687156</v>
+        <v>4061.512074690149</v>
       </c>
       <c r="AF3" t="n">
-        <v>2539.796636995971</v>
+        <v>366.7948116997034</v>
       </c>
       <c r="AG3" t="n">
-        <v>236.136994343254</v>
+        <v>1210.742810712316</v>
       </c>
       <c r="AH3" t="n">
-        <v>762.1970875360566</v>
+        <v>58.02746488282096</v>
       </c>
       <c r="AI3" t="n">
-        <v>37.66695480461537</v>
+        <v>5272.258615130161</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3301.993724532027</v>
+        <v>424.8197787518174</v>
       </c>
       <c r="AK3" t="n">
-        <v>273.8039491478693</v>
+        <v>573.6708206737293</v>
       </c>
       <c r="AL3" t="n">
-        <v>389.6784087308806</v>
+        <v>30.17163441660697</v>
       </c>
       <c r="AM3" t="n">
-        <v>20.20889340860116</v>
+        <v>421.6500603458863</v>
       </c>
       <c r="AN3" t="n">
-        <v>287.740157574228</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>48.96311745426605</v>
+        <v>76.10572788423632</v>
       </c>
     </row>
     <row r="4">
@@ -934,85 +923,82 @@
         <v>154.4145057157672</v>
       </c>
       <c r="O4" t="n">
-        <v>360.782219816817</v>
+        <v>51766.04429221401</v>
       </c>
       <c r="P4" t="n">
-        <v>33501.71009796342</v>
+        <v>1725.535885148561</v>
       </c>
       <c r="Q4" t="n">
-        <v>1725.535885148561</v>
+        <v>8687.671343410106</v>
       </c>
       <c r="R4" t="n">
-        <v>5300.69666182169</v>
+        <v>3519.46918888615</v>
       </c>
       <c r="S4" t="n">
-        <v>2040.215935957958</v>
+        <v>327.2671589945364</v>
       </c>
       <c r="T4" t="n">
-        <v>193.3729628488718</v>
+        <v>1220.664267962848</v>
       </c>
       <c r="U4" t="n">
-        <v>685.9646465131448</v>
+        <v>59.29564701059427</v>
       </c>
       <c r="V4" t="n">
-        <v>35.34998693457653</v>
+        <v>4740.131329093289</v>
       </c>
       <c r="W4" t="n">
-        <v>2726.180582471103</v>
+        <v>386.5664371975907</v>
       </c>
       <c r="X4" t="n">
-        <v>228.7229497834483</v>
+        <v>528.8766809651376</v>
       </c>
       <c r="Y4" t="n">
-        <v>335.1155794275443</v>
+        <v>32.99571311512354</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.11590060313157</v>
+        <v>357.218006015271</v>
       </c>
       <c r="AA4" t="n">
-        <v>232.7131682619898</v>
+        <v>63.39711208337077</v>
       </c>
       <c r="AB4" t="n">
-        <v>39.71189112738914</v>
+        <v>55386.84688684153</v>
       </c>
       <c r="AC4" t="n">
-        <v>35937.19455012137</v>
+        <v>1846.22675765096</v>
       </c>
       <c r="AD4" t="n">
-        <v>1846.22675765096</v>
+        <v>10639.49678420898</v>
       </c>
       <c r="AE4" t="n">
-        <v>6665.255175677918</v>
+        <v>4141.147412565511</v>
       </c>
       <c r="AF4" t="n">
-        <v>2480.67117935794</v>
+        <v>379.4093884820065</v>
       </c>
       <c r="AG4" t="n">
-        <v>232.3119876357298</v>
+        <v>1061.720435957349</v>
       </c>
       <c r="AH4" t="n">
-        <v>636.1447205476302</v>
+        <v>52.94425005813976</v>
       </c>
       <c r="AI4" t="n">
-        <v>33.33519428058285</v>
+        <v>5202.866824144952</v>
       </c>
       <c r="AJ4" t="n">
-        <v>3116.81589990557</v>
+        <v>432.3544835092832</v>
       </c>
       <c r="AK4" t="n">
-        <v>265.6471819163126</v>
+        <v>612.6063254196356</v>
       </c>
       <c r="AL4" t="n">
-        <v>395.6411602632705</v>
+        <v>33.62232579170536</v>
       </c>
       <c r="AM4" t="n">
-        <v>19.51330534091344</v>
+        <v>436.8095869505413</v>
       </c>
       <c r="AN4" t="n">
-        <v>287.1818964728548</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>49.98383506182923</v>
+        <v>80.44509323649226</v>
       </c>
     </row>
     <row r="5">
@@ -1059,85 +1045,82 @@
         <v>136.6342541584017</v>
       </c>
       <c r="O5" t="n">
-        <v>365.5588415237533</v>
+        <v>53621.95646615198</v>
       </c>
       <c r="P5" t="n">
-        <v>31885.91204110739</v>
+        <v>1787.397457969026</v>
       </c>
       <c r="Q5" t="n">
-        <v>1787.397457969026</v>
+        <v>8894.938265194913</v>
       </c>
       <c r="R5" t="n">
-        <v>4895.36877596189</v>
+        <v>3575.860806185104</v>
       </c>
       <c r="S5" t="n">
-        <v>1875.156995273667</v>
+        <v>335.4218780371789</v>
       </c>
       <c r="T5" t="n">
-        <v>180.9514876989377</v>
+        <v>1251.587693970085</v>
       </c>
       <c r="U5" t="n">
-        <v>640.9358208833912</v>
+        <v>58.93364550447668</v>
       </c>
       <c r="V5" t="n">
-        <v>31.66494115147616</v>
+        <v>4827.444760400076</v>
       </c>
       <c r="W5" t="n">
-        <v>2516.092816157058</v>
+        <v>394.3522511070231</v>
       </c>
       <c r="X5" t="n">
-        <v>212.6164288504138</v>
+        <v>552.6359309163847</v>
       </c>
       <c r="Y5" t="n">
-        <v>322.3245865152142</v>
+        <v>34.08055165411066</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.21605112243698</v>
+        <v>372.382861470978</v>
       </c>
       <c r="AA5" t="n">
-        <v>222.9637285380367</v>
+        <v>57.46603027112595</v>
       </c>
       <c r="AB5" t="n">
-        <v>33.98939350444189</v>
+        <v>56304.3547590372</v>
       </c>
       <c r="AC5" t="n">
-        <v>34025.0925488927</v>
+        <v>1876.812202935519</v>
       </c>
       <c r="AD5" t="n">
-        <v>1876.812202935519</v>
+        <v>10573.87498097945</v>
       </c>
       <c r="AE5" t="n">
-        <v>6097.844581716111</v>
+        <v>4192.33016959924</v>
       </c>
       <c r="AF5" t="n">
-        <v>2275.213407716451</v>
+        <v>373.2347507263682</v>
       </c>
       <c r="AG5" t="n">
-        <v>210.4982878524407</v>
+        <v>1148.998286899408</v>
       </c>
       <c r="AH5" t="n">
-        <v>589.3490035341426</v>
+        <v>55.96552830422638</v>
       </c>
       <c r="AI5" t="n">
-        <v>30.9314415247927</v>
+        <v>5341.331813107962</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2864.562411250593</v>
+        <v>429.1957946615274</v>
       </c>
       <c r="AK5" t="n">
-        <v>241.4297293772333</v>
+        <v>597.7209797440274</v>
       </c>
       <c r="AL5" t="n">
-        <v>362.6438058704837</v>
+        <v>32.98178543300079</v>
       </c>
       <c r="AM5" t="n">
-        <v>19.04399628982529</v>
+        <v>421.1754116428974</v>
       </c>
       <c r="AN5" t="n">
-        <v>260.8357759139266</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>40.96750169479982</v>
+        <v>70.63208233274398</v>
       </c>
     </row>
     <row r="6">
@@ -1184,85 +1167,82 @@
         <v>149.1121502740772</v>
       </c>
       <c r="O6" t="n">
-        <v>370.2482201682714</v>
+        <v>54017.03127703942</v>
       </c>
       <c r="P6" t="n">
-        <v>32937.20302856569</v>
+        <v>1800.564290881002</v>
       </c>
       <c r="Q6" t="n">
-        <v>1800.564290881002</v>
+        <v>9042.657369321298</v>
       </c>
       <c r="R6" t="n">
-        <v>5266.068953122585</v>
+        <v>3809.862938219238</v>
       </c>
       <c r="S6" t="n">
-        <v>2094.322676447742</v>
+        <v>357.079417108524</v>
       </c>
       <c r="T6" t="n">
-        <v>200.3306814680239</v>
+        <v>1391.145830984296</v>
       </c>
       <c r="U6" t="n">
-        <v>746.4811642999728</v>
+        <v>68.83375179335049</v>
       </c>
       <c r="V6" t="n">
-        <v>37.23135117097258</v>
+        <v>5201.008851848673</v>
       </c>
       <c r="W6" t="n">
-        <v>2840.803840747715</v>
+        <v>425.9150420125675</v>
       </c>
       <c r="X6" t="n">
-        <v>237.5620326389965</v>
+        <v>551.7459018812848</v>
       </c>
       <c r="Y6" t="n">
-        <v>330.3732828026258</v>
+        <v>37.34690578923194</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.01306480879474</v>
+        <v>372.7423900349943</v>
       </c>
       <c r="AA6" t="n">
-        <v>227.9832992917926</v>
+        <v>64.60542484717217</v>
       </c>
       <c r="AB6" t="n">
-        <v>37.05202180317099</v>
+        <v>57123.85366863383</v>
       </c>
       <c r="AC6" t="n">
-        <v>35074.79980873525</v>
+        <v>1904.129753659073</v>
       </c>
       <c r="AD6" t="n">
-        <v>1904.129753659073</v>
+        <v>10751.42298867178</v>
       </c>
       <c r="AE6" t="n">
-        <v>6470.338016323401</v>
+        <v>4196.796525160175</v>
       </c>
       <c r="AF6" t="n">
-        <v>2457.718200769901</v>
+        <v>402.201749800501</v>
       </c>
       <c r="AG6" t="n">
-        <v>236.1101704416967</v>
+        <v>1247.027710413152</v>
       </c>
       <c r="AH6" t="n">
-        <v>696.0475340660041</v>
+        <v>61.14626550370866</v>
       </c>
       <c r="AI6" t="n">
-        <v>35.52994532184402</v>
+        <v>5443.817100651934</v>
       </c>
       <c r="AJ6" t="n">
-        <v>3153.765734835905</v>
+        <v>463.3440922487699</v>
       </c>
       <c r="AK6" t="n">
-        <v>271.6401157635407</v>
+        <v>622.1897217337698</v>
       </c>
       <c r="AL6" t="n">
-        <v>384.0434469791281</v>
+        <v>34.74470829140405</v>
       </c>
       <c r="AM6" t="n">
-        <v>20.28297472158512</v>
+        <v>443.0390705365213</v>
       </c>
       <c r="AN6" t="n">
-        <v>274.4744779203385</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>47.73284148571117</v>
+        <v>81.30985778603898</v>
       </c>
     </row>
     <row r="7">
@@ -1309,85 +1289,82 @@
         <v>150.508691540972</v>
       </c>
       <c r="O7" t="n">
-        <v>363.70321204063</v>
+        <v>53502.51777605127</v>
       </c>
       <c r="P7" t="n">
-        <v>33451.52558273289</v>
+        <v>1783.418939396687</v>
       </c>
       <c r="Q7" t="n">
-        <v>1783.418939396687</v>
+        <v>8941.42511543199</v>
       </c>
       <c r="R7" t="n">
-        <v>5211.580470037179</v>
+        <v>3745.868618832651</v>
       </c>
       <c r="S7" t="n">
-        <v>2097.831563257856</v>
+        <v>349.6106550601522</v>
       </c>
       <c r="T7" t="n">
-        <v>199.5482293866354</v>
+        <v>1324.350531858043</v>
       </c>
       <c r="U7" t="n">
-        <v>751.0469753250434</v>
+        <v>68.22434977158433</v>
       </c>
       <c r="V7" t="n">
-        <v>38.81964545313437</v>
+        <v>5070.218330829445</v>
       </c>
       <c r="W7" t="n">
-        <v>2848.8785385829</v>
+        <v>417.8369867692903</v>
       </c>
       <c r="X7" t="n">
-        <v>238.3678748397697</v>
+        <v>537.1901396803212</v>
       </c>
       <c r="Y7" t="n">
-        <v>330.2615575241902</v>
+        <v>33.95155024913021</v>
       </c>
       <c r="Z7" t="n">
-        <v>20.65019347540924</v>
+        <v>370.0047252061582</v>
       </c>
       <c r="AA7" t="n">
-        <v>233.9933808336232</v>
+        <v>61.88403335167281</v>
       </c>
       <c r="AB7" t="n">
-        <v>36.11915667199084</v>
+        <v>56097.56385836832</v>
       </c>
       <c r="AC7" t="n">
-        <v>35795.92311940047</v>
+        <v>1869.914885137537</v>
       </c>
       <c r="AD7" t="n">
-        <v>1869.914885137537</v>
+        <v>10637.98163483731</v>
       </c>
       <c r="AE7" t="n">
-        <v>6639.817991836841</v>
+        <v>4162.960509535569</v>
       </c>
       <c r="AF7" t="n">
-        <v>2574.625122474331</v>
+        <v>388.0504240549238</v>
       </c>
       <c r="AG7" t="n">
-        <v>242.6978337353698</v>
+        <v>1144.478367805766</v>
       </c>
       <c r="AH7" t="n">
-        <v>719.0006010355013</v>
+        <v>58.56113376741276</v>
       </c>
       <c r="AI7" t="n">
-        <v>37.88869939237908</v>
+        <v>5307.434151751002</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3293.625723509832</v>
+        <v>446.6171325207755</v>
       </c>
       <c r="AK7" t="n">
-        <v>280.5865331277488</v>
+        <v>603.7355917722937</v>
       </c>
       <c r="AL7" t="n">
-        <v>392.2497439276085</v>
+        <v>31.45140969514687</v>
       </c>
       <c r="AM7" t="n">
-        <v>19.97539431004674</v>
+        <v>426.6406672127746</v>
       </c>
       <c r="AN7" t="n">
-        <v>279.9828864443087</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>50.74879876143073</v>
+        <v>79.97902192583705</v>
       </c>
     </row>
     <row r="8">
@@ -1434,85 +1411,82 @@
         <v>152.0877925816976</v>
       </c>
       <c r="O8" t="n">
-        <v>370.4637023367778</v>
+        <v>54428.44962127907</v>
       </c>
       <c r="P8" t="n">
-        <v>32723.93585513288</v>
+        <v>1814.28396473961</v>
       </c>
       <c r="Q8" t="n">
-        <v>1814.28396473961</v>
+        <v>9128.84701701578</v>
       </c>
       <c r="R8" t="n">
-        <v>5272.524161125022</v>
+        <v>3920.769358062492</v>
       </c>
       <c r="S8" t="n">
-        <v>2155.902237793054</v>
+        <v>364.0352920068115</v>
       </c>
       <c r="T8" t="n">
-        <v>202.3122950298206</v>
+        <v>1434.150281872464</v>
       </c>
       <c r="U8" t="n">
-        <v>732.4168616269941</v>
+        <v>68.04164613948775</v>
       </c>
       <c r="V8" t="n">
-        <v>37.03272537578493</v>
+        <v>5354.921580319228</v>
       </c>
       <c r="W8" t="n">
-        <v>2888.319099420048</v>
+        <v>432.0727360788705</v>
       </c>
       <c r="X8" t="n">
-        <v>239.3450204056056</v>
+        <v>567.4971990011855</v>
       </c>
       <c r="Y8" t="n">
-        <v>337.2445722950308</v>
+        <v>35.90960437653216</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.33109211392516</v>
+        <v>381.7982137052855</v>
       </c>
       <c r="AA8" t="n">
-        <v>230.9960670302893</v>
+        <v>62.84857929243505</v>
       </c>
       <c r="AB8" t="n">
-        <v>36.16335257741294</v>
+        <v>57174.39934468961</v>
       </c>
       <c r="AC8" t="n">
-        <v>35032.66289544145</v>
+        <v>1905.812844860768</v>
       </c>
       <c r="AD8" t="n">
-        <v>1905.812844860768</v>
+        <v>10903.14437862489</v>
       </c>
       <c r="AE8" t="n">
-        <v>6577.108552889591</v>
+        <v>4207.565259299143</v>
       </c>
       <c r="AF8" t="n">
-        <v>2507.754927898323</v>
+        <v>390.1862005438467</v>
       </c>
       <c r="AG8" t="n">
-        <v>234.2458986722325</v>
+        <v>1149.519379135391</v>
       </c>
       <c r="AH8" t="n">
-        <v>683.2911944400698</v>
+        <v>59.29286220270117</v>
       </c>
       <c r="AI8" t="n">
-        <v>34.91952111613374</v>
+        <v>5357.087086085691</v>
       </c>
       <c r="AJ8" t="n">
-        <v>3191.046122338393</v>
+        <v>449.4814054493266</v>
       </c>
       <c r="AK8" t="n">
-        <v>269.1654197883663</v>
+        <v>612.6810344270748</v>
       </c>
       <c r="AL8" t="n">
-        <v>381.2851487630028</v>
+        <v>30.5087752090372</v>
       </c>
       <c r="AM8" t="n">
-        <v>19.1718265284117</v>
+        <v>443.1927346540419</v>
       </c>
       <c r="AN8" t="n">
-        <v>278.090045656253</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>46.19942855186513</v>
+        <v>78.04356155792348</v>
       </c>
     </row>
     <row r="9">
@@ -1559,85 +1533,82 @@
         <v>150.1439617849911</v>
       </c>
       <c r="O9" t="n">
-        <v>375.4581812475893</v>
+        <v>54786.97480858286</v>
       </c>
       <c r="P9" t="n">
-        <v>33587.62048642865</v>
+        <v>1826.23426818499</v>
       </c>
       <c r="Q9" t="n">
-        <v>1826.23426818499</v>
+        <v>9175.127029941916</v>
       </c>
       <c r="R9" t="n">
-        <v>5361.912555135222</v>
+        <v>3742.23754272386</v>
       </c>
       <c r="S9" t="n">
-        <v>2113.123307784447</v>
+        <v>347.9081983994695</v>
       </c>
       <c r="T9" t="n">
-        <v>199.046957653152</v>
+        <v>1278.245700742727</v>
       </c>
       <c r="U9" t="n">
-        <v>693.1886172158248</v>
+        <v>64.6018238521697</v>
       </c>
       <c r="V9" t="n">
-        <v>35.55078952420696</v>
+        <v>5020.477242989793</v>
       </c>
       <c r="W9" t="n">
-        <v>2806.311925000272</v>
+        <v>412.5066721689785</v>
       </c>
       <c r="X9" t="n">
-        <v>234.597747177359</v>
+        <v>554.4024401558443</v>
       </c>
       <c r="Y9" t="n">
-        <v>333.773502603735</v>
+        <v>33.61276784753924</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.59652551424893</v>
+        <v>377.6573159941</v>
       </c>
       <c r="AA9" t="n">
-        <v>234.4458206402459</v>
+        <v>64.45704194378236</v>
       </c>
       <c r="AB9" t="n">
-        <v>36.90141854920129</v>
+        <v>58113.15229009359</v>
       </c>
       <c r="AC9" t="n">
-        <v>35791.00785942335</v>
+        <v>1937.105942840234</v>
       </c>
       <c r="AD9" t="n">
-        <v>1937.105942840234</v>
+        <v>10960.79516461826</v>
       </c>
       <c r="AE9" t="n">
-        <v>6562.744881381763</v>
+        <v>4368.898648953059</v>
       </c>
       <c r="AF9" t="n">
-        <v>2560.795698464407</v>
+        <v>395.3535958158425</v>
       </c>
       <c r="AG9" t="n">
-        <v>238.3856027287202</v>
+        <v>1146.267889374366</v>
       </c>
       <c r="AH9" t="n">
-        <v>685.7393589313049</v>
+        <v>57.73231261488534</v>
       </c>
       <c r="AI9" t="n">
-        <v>35.86535420978895</v>
+        <v>5515.171502110402</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3246.535057395713</v>
+        <v>453.0973091695166</v>
       </c>
       <c r="AK9" t="n">
-        <v>274.2509569385091</v>
+        <v>631.432186326844</v>
       </c>
       <c r="AL9" t="n">
-        <v>397.1355268799675</v>
+        <v>35.57204571743154</v>
       </c>
       <c r="AM9" t="n">
-        <v>21.01619434340659</v>
+        <v>444.6803123479724</v>
       </c>
       <c r="AN9" t="n">
-        <v>285.2076776070844</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>48.50990306512731</v>
+        <v>81.05406996515424</v>
       </c>
     </row>
     <row r="10">
@@ -1684,85 +1655,82 @@
         <v>155.2231143792766</v>
       </c>
       <c r="O10" t="n">
-        <v>376.0389031214112</v>
+        <v>56312.58812191172</v>
       </c>
       <c r="P10" t="n">
-        <v>33310.16430015694</v>
+        <v>1877.080119379674</v>
       </c>
       <c r="Q10" t="n">
-        <v>1877.080119379674</v>
+        <v>9605.984950017952</v>
       </c>
       <c r="R10" t="n">
-        <v>5474.078399679858</v>
+        <v>3915.094736377935</v>
       </c>
       <c r="S10" t="n">
-        <v>2118.145528578609</v>
+        <v>367.839015398704</v>
       </c>
       <c r="T10" t="n">
-        <v>201.9600398843352</v>
+        <v>1404.191232842967</v>
       </c>
       <c r="U10" t="n">
-        <v>727.7961813441804</v>
+        <v>66.42431705692171</v>
       </c>
       <c r="V10" t="n">
-        <v>36.57007224922792</v>
+        <v>5319.285891979538</v>
       </c>
       <c r="W10" t="n">
-        <v>2845.941709922789</v>
+        <v>434.2674639823473</v>
       </c>
       <c r="X10" t="n">
-        <v>238.5301121335631</v>
+        <v>590.6371020577324</v>
       </c>
       <c r="Y10" t="n">
-        <v>343.2936235279361</v>
+        <v>37.75194682809823</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.43414465656694</v>
+        <v>412.0005110785304</v>
       </c>
       <c r="AA10" t="n">
-        <v>244.7362683689705</v>
+        <v>68.2947311070711</v>
       </c>
       <c r="AB10" t="n">
-        <v>38.05839077664019</v>
+        <v>59495.69520697328</v>
       </c>
       <c r="AC10" t="n">
-        <v>35689.86968410787</v>
+        <v>1983.188213010291</v>
       </c>
       <c r="AD10" t="n">
-        <v>1983.188213010291</v>
+        <v>11410.27789019554</v>
       </c>
       <c r="AE10" t="n">
-        <v>6718.498677698856</v>
+        <v>4541.018376898159</v>
       </c>
       <c r="AF10" t="n">
-        <v>2645.734907876684</v>
+        <v>422.8389048415914</v>
       </c>
       <c r="AG10" t="n">
-        <v>246.5598642414307</v>
+        <v>1240.469658490975</v>
       </c>
       <c r="AH10" t="n">
-        <v>718.8772546457025</v>
+        <v>60.88225549933878</v>
       </c>
       <c r="AI10" t="n">
-        <v>36.87250162070499</v>
+        <v>5781.486190803402</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3364.612162522387</v>
+        <v>483.7173301770209</v>
       </c>
       <c r="AK10" t="n">
-        <v>283.4323658621357</v>
+        <v>653.6535394791273</v>
       </c>
       <c r="AL10" t="n">
-        <v>400.7644336694924</v>
+        <v>38.79457999347456</v>
       </c>
       <c r="AM10" t="n">
-        <v>21.35168206200362</v>
+        <v>467.5573878316604</v>
       </c>
       <c r="AN10" t="n">
-        <v>290.2288965197125</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>49.88839190488829</v>
+        <v>86.77125986310162</v>
       </c>
     </row>
     <row r="11">
@@ -1809,85 +1777,82 @@
         <v>146.1068418765399</v>
       </c>
       <c r="O11" t="n">
-        <v>361.2150758000016</v>
+        <v>51706.10552012081</v>
       </c>
       <c r="P11" t="n">
-        <v>33926.68302126309</v>
+        <v>1723.53779061267</v>
       </c>
       <c r="Q11" t="n">
-        <v>1723.53779061267</v>
+        <v>8502.892641647619</v>
       </c>
       <c r="R11" t="n">
-        <v>5345.714204503958</v>
+        <v>3475.213465393706</v>
       </c>
       <c r="S11" t="n">
-        <v>2030.056300674007</v>
+        <v>320.9577346732904</v>
       </c>
       <c r="T11" t="n">
-        <v>189.9773147928877</v>
+        <v>1194.379671160602</v>
       </c>
       <c r="U11" t="n">
-        <v>660.2090531239621</v>
+        <v>55.68791063484495</v>
       </c>
       <c r="V11" t="n">
-        <v>31.98626638344361</v>
+        <v>4669.595228234798</v>
       </c>
       <c r="W11" t="n">
-        <v>2690.265353797969</v>
+        <v>376.6425856186461</v>
       </c>
       <c r="X11" t="n">
-        <v>221.9635811763313</v>
+        <v>535.0583152055972</v>
       </c>
       <c r="Y11" t="n">
-        <v>347.0046365358752</v>
+        <v>29.41004004797241</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.56224332359229</v>
+        <v>369.9565512576195</v>
       </c>
       <c r="AA11" t="n">
-        <v>243.5183355143513</v>
+        <v>58.45534734372708</v>
       </c>
       <c r="AB11" t="n">
-        <v>37.14291111036831</v>
+        <v>56103.10465834301</v>
       </c>
       <c r="AC11" t="n">
-        <v>36114.04179545907</v>
+        <v>1870.102483309696</v>
       </c>
       <c r="AD11" t="n">
-        <v>1870.102483309696</v>
+        <v>10678.99178324096</v>
       </c>
       <c r="AE11" t="n">
-        <v>6627.527296932833</v>
+        <v>4005.223757302799</v>
       </c>
       <c r="AF11" t="n">
-        <v>2399.82726025348</v>
+        <v>369.8081344835972</v>
       </c>
       <c r="AG11" t="n">
-        <v>224.3102710353013</v>
+        <v>1118.94174277082</v>
       </c>
       <c r="AH11" t="n">
-        <v>639.5868259730355</v>
+        <v>53.85122724245046</v>
       </c>
       <c r="AI11" t="n">
-        <v>32.17137490027142</v>
+        <v>5124.170233898385</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3039.414086226516</v>
+        <v>423.6538569127493</v>
       </c>
       <c r="AK11" t="n">
-        <v>256.4816459355727</v>
+        <v>598.8449468481406</v>
       </c>
       <c r="AL11" t="n">
-        <v>396.492376589794</v>
+        <v>32.81851221394262</v>
       </c>
       <c r="AM11" t="n">
-        <v>19.38642552831006</v>
+        <v>430.6372173876059</v>
       </c>
       <c r="AN11" t="n">
-        <v>290.0943559050849</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>48.32130347633064</v>
+        <v>79.60531663437104</v>
       </c>
     </row>
     <row r="12">
@@ -1934,85 +1899,82 @@
         <v>150.5062964049309</v>
       </c>
       <c r="O12" t="n">
-        <v>353.8524594275615</v>
+        <v>51442.43023545477</v>
       </c>
       <c r="P12" t="n">
-        <v>34131.81671102536</v>
+        <v>1714.749909422879</v>
       </c>
       <c r="Q12" t="n">
-        <v>1714.749909422879</v>
+        <v>8497.709184506797</v>
       </c>
       <c r="R12" t="n">
-        <v>5333.259456639932</v>
+        <v>3413.802618570083</v>
       </c>
       <c r="S12" t="n">
-        <v>2087.369689155555</v>
+        <v>326.995786720868</v>
       </c>
       <c r="T12" t="n">
-        <v>200.0985965594619</v>
+        <v>1191.68295394545</v>
       </c>
       <c r="U12" t="n">
-        <v>673.2269725623091</v>
+        <v>55.62729835214695</v>
       </c>
       <c r="V12" t="n">
-        <v>34.08668222139559</v>
+        <v>4605.483735070165</v>
       </c>
       <c r="W12" t="n">
-        <v>2760.596661717864</v>
+        <v>382.6230733195712</v>
       </c>
       <c r="X12" t="n">
-        <v>234.1852787808575</v>
+        <v>538.7262606565375</v>
       </c>
       <c r="Y12" t="n">
-        <v>350.1466616326811</v>
+        <v>33.45742268230914</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.02923990998161</v>
+        <v>370.9653805248561</v>
       </c>
       <c r="AA12" t="n">
-        <v>249.9432787064871</v>
+        <v>63.24484216494955</v>
       </c>
       <c r="AB12" t="n">
-        <v>38.72028024380917</v>
+        <v>54557.30314093386</v>
       </c>
       <c r="AC12" t="n">
-        <v>36450.5085123768</v>
+        <v>1818.57476394371</v>
       </c>
       <c r="AD12" t="n">
-        <v>1818.57476394371</v>
+        <v>10333.31836727206</v>
       </c>
       <c r="AE12" t="n">
-        <v>6649.242297169947</v>
+        <v>3944.422104016659</v>
       </c>
       <c r="AF12" t="n">
-        <v>2480.827433871181</v>
+        <v>374.7349254130694</v>
       </c>
       <c r="AG12" t="n">
-        <v>235.5842038126781</v>
+        <v>1118.688087863299</v>
       </c>
       <c r="AH12" t="n">
-        <v>677.6204430405653</v>
+        <v>53.71998802031943</v>
       </c>
       <c r="AI12" t="n">
-        <v>33.40680634247009</v>
+        <v>5063.113980156349</v>
       </c>
       <c r="AJ12" t="n">
-        <v>3158.447876911746</v>
+        <v>428.4544720616833</v>
       </c>
       <c r="AK12" t="n">
-        <v>268.9910101551482</v>
+        <v>607.675175443844</v>
       </c>
       <c r="AL12" t="n">
-        <v>413.5971818828454</v>
+        <v>31.10464523765993</v>
       </c>
       <c r="AM12" t="n">
-        <v>19.76920118238666</v>
+        <v>436.6269856961453</v>
       </c>
       <c r="AN12" t="n">
-        <v>299.9657703010631</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>49.60002866963294</v>
+        <v>79.52721482134433</v>
       </c>
     </row>
     <row r="13">
@@ -2059,85 +2021,82 @@
         <v>154.8858590128858</v>
       </c>
       <c r="O13" t="n">
-        <v>351.2492545590218</v>
+        <v>51753.27402023519</v>
       </c>
       <c r="P13" t="n">
-        <v>33863.45072923703</v>
+        <v>1725.110303685254</v>
       </c>
       <c r="Q13" t="n">
-        <v>1725.110303685254</v>
+        <v>8646.552511082364</v>
       </c>
       <c r="R13" t="n">
-        <v>5423.239977204285</v>
+        <v>3433.520489445326</v>
       </c>
       <c r="S13" t="n">
-        <v>2037.64922170949</v>
+        <v>323.539438311416</v>
       </c>
       <c r="T13" t="n">
-        <v>195.7380616572248</v>
+        <v>1112.26921491623</v>
       </c>
       <c r="U13" t="n">
-        <v>632.8536641899929</v>
+        <v>60.75646810002487</v>
       </c>
       <c r="V13" t="n">
-        <v>34.98421909644688</v>
+        <v>4545.793929019055</v>
       </c>
       <c r="W13" t="n">
-        <v>2670.502885899483</v>
+        <v>384.2977994738135</v>
       </c>
       <c r="X13" t="n">
-        <v>230.7222807536717</v>
+        <v>534.6133360580649</v>
       </c>
       <c r="Y13" t="n">
-        <v>344.2373497934472</v>
+        <v>33.74053073498481</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.14251704282173</v>
+        <v>367.7917572269786</v>
       </c>
       <c r="AA13" t="n">
-        <v>245.9065913956877</v>
+        <v>65.27063714236141</v>
       </c>
       <c r="AB13" t="n">
-        <v>39.39056719675426</v>
+        <v>55817.1669232529</v>
       </c>
       <c r="AC13" t="n">
-        <v>36372.37181812272</v>
+        <v>1860.573550605621</v>
       </c>
       <c r="AD13" t="n">
-        <v>1860.573550605621</v>
+        <v>10479.72704148379</v>
       </c>
       <c r="AE13" t="n">
-        <v>6705.998357237459</v>
+        <v>3931.953668797005</v>
       </c>
       <c r="AF13" t="n">
-        <v>2454.36508429642</v>
+        <v>371.728673302144</v>
       </c>
       <c r="AG13" t="n">
-        <v>233.1801315872555</v>
+        <v>1083.128340230299</v>
       </c>
       <c r="AH13" t="n">
-        <v>645.4270928659557</v>
+        <v>54.20585561244206</v>
       </c>
       <c r="AI13" t="n">
-        <v>34.18170960190182</v>
+        <v>5015.082264806247</v>
       </c>
       <c r="AJ13" t="n">
-        <v>3099.792177162376</v>
+        <v>425.9398884158835</v>
       </c>
       <c r="AK13" t="n">
-        <v>267.3618411891573</v>
+        <v>621.8514425607104</v>
       </c>
       <c r="AL13" t="n">
-        <v>404.4053223716571</v>
+        <v>35.02796501115834</v>
       </c>
       <c r="AM13" t="n">
-        <v>20.74372725778489</v>
+        <v>451.4640046295963</v>
       </c>
       <c r="AN13" t="n">
-        <v>301.0054713558887</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>50.97253352182189</v>
+        <v>82.08256104595594</v>
       </c>
     </row>
     <row r="14">
@@ -2184,85 +2143,82 @@
         <v>154.9389765559172</v>
       </c>
       <c r="O14" t="n">
-        <v>366.8692900585356</v>
+        <v>54831.63750676084</v>
       </c>
       <c r="P14" t="n">
-        <v>35208.00778280292</v>
+        <v>1827.721114317825</v>
       </c>
       <c r="Q14" t="n">
-        <v>1827.721114317825</v>
+        <v>9275.842719553686</v>
       </c>
       <c r="R14" t="n">
-        <v>5652.803619148258</v>
+        <v>3995.214259448339</v>
       </c>
       <c r="S14" t="n">
-        <v>2258.110489498791</v>
+        <v>368.1640368195291</v>
       </c>
       <c r="T14" t="n">
-        <v>210.7638974807913</v>
+        <v>1468.836902362102</v>
       </c>
       <c r="U14" t="n">
-        <v>773.5955563677924</v>
+        <v>70.21454344052471</v>
       </c>
       <c r="V14" t="n">
-        <v>40.35035415298783</v>
+        <v>5464.056909354792</v>
       </c>
       <c r="W14" t="n">
-        <v>3031.706045866583</v>
+        <v>438.3842282304701</v>
       </c>
       <c r="X14" t="n">
-        <v>251.1142516337791</v>
+        <v>551.6876596846014</v>
       </c>
       <c r="Y14" t="n">
-        <v>349.065584815407</v>
+        <v>32.76279907294951</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.96784895299646</v>
+        <v>376.8080728801506</v>
       </c>
       <c r="AA14" t="n">
-        <v>246.7419898529768</v>
+        <v>61.57976066982623</v>
       </c>
       <c r="AB14" t="n">
-        <v>37.25160077721468</v>
+        <v>57705.96312213263</v>
       </c>
       <c r="AC14" t="n">
-        <v>37666.6036088516</v>
+        <v>1923.53016747839</v>
       </c>
       <c r="AD14" t="n">
-        <v>1923.53016747839</v>
+        <v>11394.69759990496</v>
       </c>
       <c r="AE14" t="n">
-        <v>7150.817184926174</v>
+        <v>4464.294224433659</v>
       </c>
       <c r="AF14" t="n">
-        <v>2733.75240625832</v>
+        <v>406.2566015873086</v>
       </c>
       <c r="AG14" t="n">
-        <v>250.3328928153534</v>
+        <v>1195.509249352946</v>
       </c>
       <c r="AH14" t="n">
-        <v>697.9859898662744</v>
+        <v>59.72117520725946</v>
       </c>
       <c r="AI14" t="n">
-        <v>36.34816903136428</v>
+        <v>5659.804342179561</v>
       </c>
       <c r="AJ14" t="n">
-        <v>3431.738396124595</v>
+        <v>465.9758325160955</v>
       </c>
       <c r="AK14" t="n">
-        <v>286.6810618467177</v>
+        <v>608.1086143438463</v>
       </c>
       <c r="AL14" t="n">
-        <v>409.6986494557393</v>
+        <v>34.17349403049736</v>
       </c>
       <c r="AM14" t="n">
-        <v>21.16071908889408</v>
+        <v>440.2976780931684</v>
       </c>
       <c r="AN14" t="n">
-        <v>296.9657371924889</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>50.95745345438257</v>
+        <v>78.86901968658395</v>
       </c>
     </row>
     <row r="15">
@@ -2309,85 +2265,82 @@
         <v>155.3565441315969</v>
       </c>
       <c r="O15" t="n">
-        <v>358.7799521337256</v>
+        <v>53324.53365714946</v>
       </c>
       <c r="P15" t="n">
-        <v>33820.88953364313</v>
+        <v>1777.484995735841</v>
       </c>
       <c r="Q15" t="n">
-        <v>1777.484995735841</v>
+        <v>8979.281885286164</v>
       </c>
       <c r="R15" t="n">
-        <v>5399.229995056156</v>
+        <v>3797.442547381125</v>
       </c>
       <c r="S15" t="n">
-        <v>2223.870341063591</v>
+        <v>350.9544461283695</v>
       </c>
       <c r="T15" t="n">
-        <v>208.4177669736478</v>
+        <v>1351.742889845947</v>
       </c>
       <c r="U15" t="n">
-        <v>734.0324060644862</v>
+        <v>69.33361391513026</v>
       </c>
       <c r="V15" t="n">
-        <v>39.34580650962107</v>
+        <v>5149.188213249618</v>
       </c>
       <c r="W15" t="n">
-        <v>2957.902747128077</v>
+        <v>420.2829719143177</v>
       </c>
       <c r="X15" t="n">
-        <v>247.7635734832689</v>
+        <v>554.6565605375325</v>
       </c>
       <c r="Y15" t="n">
-        <v>344.095037860902</v>
+        <v>35.23767662662764</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.66296191158259</v>
+        <v>380.4832558325206</v>
       </c>
       <c r="AA15" t="n">
-        <v>243.1193061252284</v>
+        <v>61.91214155451113</v>
       </c>
       <c r="AB15" t="n">
-        <v>36.78958494634882</v>
+        <v>57189.69038080897</v>
       </c>
       <c r="AC15" t="n">
-        <v>36169.70860527441</v>
+        <v>1906.323469663702</v>
       </c>
       <c r="AD15" t="n">
-        <v>1906.323469663702</v>
+        <v>11198.30926566509</v>
       </c>
       <c r="AE15" t="n">
-        <v>6801.555942772145</v>
+        <v>4440.52831603976</v>
       </c>
       <c r="AF15" t="n">
-        <v>2578.366016177862</v>
+        <v>393.0102975654605</v>
       </c>
       <c r="AG15" t="n">
-        <v>238.7066750641675</v>
+        <v>1216.201110148756</v>
       </c>
       <c r="AH15" t="n">
-        <v>702.625618472305</v>
+        <v>58.61827929420836</v>
       </c>
       <c r="AI15" t="n">
-        <v>36.38015705392816</v>
+        <v>5656.72618722265</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3280.991634650168</v>
+        <v>451.6230142699731</v>
       </c>
       <c r="AK15" t="n">
-        <v>275.0868321180957</v>
+        <v>628.1114743731404</v>
       </c>
       <c r="AL15" t="n">
-        <v>398.9693228027789</v>
+        <v>30.60506686855181</v>
       </c>
       <c r="AM15" t="n">
-        <v>19.15753426141505</v>
+        <v>442.3406995346436</v>
       </c>
       <c r="AN15" t="n">
-        <v>287.4226610971787</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>51.35031687706847</v>
+        <v>84.61336029070945</v>
       </c>
     </row>
     <row r="16">
@@ -2434,85 +2387,82 @@
         <v>156.2885428051248</v>
       </c>
       <c r="O16" t="n">
-        <v>359.7417166993828</v>
+        <v>52409.19457418349</v>
       </c>
       <c r="P16" t="n">
-        <v>33783.41575710945</v>
+        <v>1746.974357479824</v>
       </c>
       <c r="Q16" t="n">
-        <v>1746.974357479824</v>
+        <v>8799.336677594962</v>
       </c>
       <c r="R16" t="n">
-        <v>5354.517167288875</v>
+        <v>3570.719912877952</v>
       </c>
       <c r="S16" t="n">
-        <v>2088.957870127823</v>
+        <v>336.9204130721215</v>
       </c>
       <c r="T16" t="n">
-        <v>198.4686867999174</v>
+        <v>1265.869710438968</v>
       </c>
       <c r="U16" t="n">
-        <v>710.5608006273767</v>
+        <v>63.89472310713876</v>
       </c>
       <c r="V16" t="n">
-        <v>36.89679220210309</v>
+        <v>4836.59220576029</v>
       </c>
       <c r="W16" t="n">
-        <v>2799.518670755199</v>
+        <v>400.8151084651254</v>
       </c>
       <c r="X16" t="n">
-        <v>235.3654790020205</v>
+        <v>540.577923722258</v>
       </c>
       <c r="Y16" t="n">
-        <v>345.6441112222436</v>
+        <v>33.54649315044708</v>
       </c>
       <c r="Z16" t="n">
-        <v>21.07590288441703</v>
+        <v>372.3226371178553</v>
       </c>
       <c r="AA16" t="n">
-        <v>245.0600076231647</v>
+        <v>65.86793696728765</v>
       </c>
       <c r="AB16" t="n">
-        <v>39.06547423647822</v>
+        <v>55055.61896862074</v>
       </c>
       <c r="AC16" t="n">
-        <v>36169.03376859154</v>
+        <v>1835.188032979304</v>
       </c>
       <c r="AD16" t="n">
-        <v>1835.188032979304</v>
+        <v>10736.5272117769</v>
       </c>
       <c r="AE16" t="n">
-        <v>6807.228777799532</v>
+        <v>4001.013221255024</v>
       </c>
       <c r="AF16" t="n">
-        <v>2479.870017184688</v>
+        <v>381.6926453192693</v>
       </c>
       <c r="AG16" t="n">
-        <v>238.8122547103864</v>
+        <v>1101.280909083876</v>
       </c>
       <c r="AH16" t="n">
-        <v>645.1077407978479</v>
+        <v>55.24058630996518</v>
       </c>
       <c r="AI16" t="n">
-        <v>34.32473560017509</v>
+        <v>5102.290356103593</v>
       </c>
       <c r="AJ16" t="n">
-        <v>3124.977757982535</v>
+        <v>436.9279911517584</v>
       </c>
       <c r="AK16" t="n">
-        <v>273.1369903105615</v>
+        <v>611.7729471139836</v>
       </c>
       <c r="AL16" t="n">
-        <v>409.571407553084</v>
+        <v>31.97464514327009</v>
       </c>
       <c r="AM16" t="n">
-        <v>20.5790317513678</v>
+        <v>444.2135956042458</v>
       </c>
       <c r="AN16" t="n">
-        <v>303.4793627311334</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>51.69258785348921</v>
+        <v>78.6649585566511</v>
       </c>
     </row>
     <row r="17">
@@ -2559,85 +2509,82 @@
         <v>155.1093821087498</v>
       </c>
       <c r="O17" t="n">
-        <v>364.7948648623812</v>
+        <v>55767.10041001497</v>
       </c>
       <c r="P17" t="n">
-        <v>34616.46614395557</v>
+        <v>1858.906404990959</v>
       </c>
       <c r="Q17" t="n">
-        <v>1858.906404990959</v>
+        <v>9561.339079605525</v>
       </c>
       <c r="R17" t="n">
-        <v>5508.955977438561</v>
+        <v>4025.050294509689</v>
       </c>
       <c r="S17" t="n">
-        <v>2210.588988477815</v>
+        <v>372.4542890443738</v>
       </c>
       <c r="T17" t="n">
-        <v>207.4103191993086</v>
+        <v>1327.966091926497</v>
       </c>
       <c r="U17" t="n">
-        <v>714.8056907871552</v>
+        <v>69.79853275091772</v>
       </c>
       <c r="V17" t="n">
-        <v>38.41883827894193</v>
+        <v>5353.014335158139</v>
       </c>
       <c r="W17" t="n">
-        <v>2925.39467926497</v>
+        <v>442.2513039544509</v>
       </c>
       <c r="X17" t="n">
-        <v>245.8291574782505</v>
+        <v>579.3133214903787</v>
       </c>
       <c r="Y17" t="n">
-        <v>353.9135505729474</v>
+        <v>39.40881013369298</v>
       </c>
       <c r="Z17" t="n">
-        <v>22.15737645607553</v>
+        <v>401.2316598333129</v>
       </c>
       <c r="AA17" t="n">
-        <v>250.9946796646805</v>
+        <v>62.7165181304118</v>
       </c>
       <c r="AB17" t="n">
-        <v>36.75869300381819</v>
+        <v>59016.12801413724</v>
       </c>
       <c r="AC17" t="n">
-        <v>37189.85512794998</v>
+        <v>1967.207481232803</v>
       </c>
       <c r="AD17" t="n">
-        <v>1967.207481232803</v>
+        <v>11785.48608777104</v>
       </c>
       <c r="AE17" t="n">
-        <v>7059.531032254486</v>
+        <v>4519.600085518345</v>
       </c>
       <c r="AF17" t="n">
-        <v>2670.890069831751</v>
+        <v>413.7394861891007</v>
       </c>
       <c r="AG17" t="n">
-        <v>249.9672890008069</v>
+        <v>1146.60282867688</v>
       </c>
       <c r="AH17" t="n">
-        <v>677.2942109319415</v>
+        <v>57.85107466120295</v>
       </c>
       <c r="AI17" t="n">
-        <v>35.4353201006404</v>
+        <v>5666.20508236572</v>
       </c>
       <c r="AJ17" t="n">
-        <v>3348.184280763693</v>
+        <v>471.5884948405003</v>
       </c>
       <c r="AK17" t="n">
-        <v>285.4026091014473</v>
+        <v>621.3188292123064</v>
       </c>
       <c r="AL17" t="n">
-        <v>403.0154068295459</v>
+        <v>32.29823845450996</v>
       </c>
       <c r="AM17" t="n">
-        <v>20.0499260173484</v>
+        <v>454.2749127992507</v>
       </c>
       <c r="AN17" t="n">
-        <v>295.3769369664089</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>51.31771535603958</v>
+        <v>80.80089884765634</v>
       </c>
     </row>
     <row r="18">
@@ -2684,85 +2631,82 @@
         <v>154.0896075136188</v>
       </c>
       <c r="O18" t="n">
-        <v>356.5901065690886</v>
+        <v>52553.22005985192</v>
       </c>
       <c r="P18" t="n">
-        <v>35301.63592343585</v>
+        <v>1751.77249681948</v>
       </c>
       <c r="Q18" t="n">
-        <v>1751.77249681948</v>
+        <v>8614.435417494822</v>
       </c>
       <c r="R18" t="n">
-        <v>5583.985888135167</v>
+        <v>3623.980773729123</v>
       </c>
       <c r="S18" t="n">
-        <v>2229.055335822977</v>
+        <v>336.4028934420993</v>
       </c>
       <c r="T18" t="n">
-        <v>208.6569881858439</v>
+        <v>1357.826610665465</v>
       </c>
       <c r="U18" t="n">
-        <v>781.8448146025443</v>
+        <v>66.02076439683539</v>
       </c>
       <c r="V18" t="n">
-        <v>40.68960416482291</v>
+        <v>4981.799595985312</v>
       </c>
       <c r="W18" t="n">
-        <v>3010.900150425521</v>
+        <v>402.4277767331143</v>
       </c>
       <c r="X18" t="n">
-        <v>249.3465923506668</v>
+        <v>549.3115782585179</v>
       </c>
       <c r="Y18" t="n">
-        <v>360.5101228033675</v>
+        <v>30.73584477655692</v>
       </c>
       <c r="Z18" t="n">
-        <v>20.67952857363799</v>
+        <v>378.2068315324975</v>
       </c>
       <c r="AA18" t="n">
-        <v>256.301257239898</v>
+        <v>55.42306061222491</v>
       </c>
       <c r="AB18" t="n">
-        <v>36.03164365324007</v>
+        <v>55690.71631828</v>
       </c>
       <c r="AC18" t="n">
-        <v>37802.00624767951</v>
+        <v>1856.358968087065</v>
       </c>
       <c r="AD18" t="n">
-        <v>1856.358968087065</v>
+        <v>10683.48388503972</v>
       </c>
       <c r="AE18" t="n">
-        <v>7058.682537202123</v>
+        <v>4171.240346188451</v>
       </c>
       <c r="AF18" t="n">
-        <v>2689.820175612617</v>
+        <v>391.5407484820507</v>
       </c>
       <c r="AG18" t="n">
-        <v>254.3049032151761</v>
+        <v>1122.733762381257</v>
       </c>
       <c r="AH18" t="n">
-        <v>697.4492359791545</v>
+        <v>55.59366975430189</v>
       </c>
       <c r="AI18" t="n">
-        <v>36.82941417343684</v>
+        <v>5293.97183061344</v>
       </c>
       <c r="AJ18" t="n">
-        <v>3387.269411591772</v>
+        <v>447.1433462836039</v>
       </c>
       <c r="AK18" t="n">
-        <v>291.1343173886129</v>
+        <v>623.9329682547764</v>
       </c>
       <c r="AL18" t="n">
-        <v>422.4627729283961</v>
+        <v>32.16933941001416</v>
       </c>
       <c r="AM18" t="n">
-        <v>20.88412907773545</v>
+        <v>462.0147074069197</v>
       </c>
       <c r="AN18" t="n">
-        <v>316.823177222359</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>50.74309781737665</v>
+        <v>78.46004151224922</v>
       </c>
     </row>
     <row r="19">
@@ -2809,85 +2753,82 @@
         <v>156.3976821816378</v>
       </c>
       <c r="O19" t="n">
-        <v>368.4242044570874</v>
+        <v>54549.92665078631</v>
       </c>
       <c r="P19" t="n">
-        <v>33841.28481847273</v>
+        <v>1818.328103942151</v>
       </c>
       <c r="Q19" t="n">
-        <v>1818.328103942151</v>
+        <v>9218.278848865117</v>
       </c>
       <c r="R19" t="n">
-        <v>5381.465223399196</v>
+        <v>3840.752155897421</v>
       </c>
       <c r="S19" t="n">
-        <v>2163.729610825866</v>
+        <v>349.5167621614127</v>
       </c>
       <c r="T19" t="n">
-        <v>203.6187260626164</v>
+        <v>1355.915894719345</v>
       </c>
       <c r="U19" t="n">
-        <v>791.1854750679597</v>
+        <v>66.6505197102351</v>
       </c>
       <c r="V19" t="n">
-        <v>39.17346998934154</v>
+        <v>5196.670280906794</v>
       </c>
       <c r="W19" t="n">
-        <v>2954.915085893825</v>
+        <v>416.1664692354778</v>
       </c>
       <c r="X19" t="n">
-        <v>242.7921960519579</v>
+        <v>564.116781231664</v>
       </c>
       <c r="Y19" t="n">
-        <v>345.1313051381317</v>
+        <v>34.30927278008552</v>
       </c>
       <c r="Z19" t="n">
-        <v>21.47111089350699</v>
+        <v>380.8035006299225</v>
       </c>
       <c r="AA19" t="n">
-        <v>241.4245407359925</v>
+        <v>64.11974368890182</v>
       </c>
       <c r="AB19" t="n">
-        <v>37.36662252086114</v>
+        <v>58529.31573591288</v>
       </c>
       <c r="AC19" t="n">
-        <v>36489.24518994948</v>
+        <v>1950.978112946603</v>
       </c>
       <c r="AD19" t="n">
-        <v>1950.978112946603</v>
+        <v>11560.28777367638</v>
       </c>
       <c r="AE19" t="n">
-        <v>6975.68796812308</v>
+        <v>4694.730553531983</v>
       </c>
       <c r="AF19" t="n">
-        <v>2710.588101062557</v>
+        <v>414.9299323730508</v>
       </c>
       <c r="AG19" t="n">
-        <v>250.0073354816057</v>
+        <v>1317.896701498204</v>
       </c>
       <c r="AH19" t="n">
-        <v>738.7329033491794</v>
+        <v>64.98142392177252</v>
       </c>
       <c r="AI19" t="n">
-        <v>38.32249761435333</v>
+        <v>6012.621601078106</v>
       </c>
       <c r="AJ19" t="n">
-        <v>3449.321004411737</v>
+        <v>479.9164379360512</v>
       </c>
       <c r="AK19" t="n">
-        <v>288.3298330959591</v>
+        <v>633.1679314698446</v>
       </c>
       <c r="AL19" t="n">
-        <v>399.5345282031448</v>
+        <v>32.68530854192819</v>
       </c>
       <c r="AM19" t="n">
-        <v>20.11475639262589</v>
+        <v>459.9305740145575</v>
       </c>
       <c r="AN19" t="n">
-        <v>293.0533908316045</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>49.19931138885748</v>
+        <v>82.57403003108257</v>
       </c>
     </row>
     <row r="20">
@@ -2934,85 +2875,82 @@
         <v>158.0247255482993</v>
       </c>
       <c r="O20" t="n">
-        <v>345.6833580287681</v>
+        <v>51619.3499887974</v>
       </c>
       <c r="P20" t="n">
-        <v>34069.93405250083</v>
+        <v>1720.645427013321</v>
       </c>
       <c r="Q20" t="n">
-        <v>1720.645427013321</v>
+        <v>8908.104901763993</v>
       </c>
       <c r="R20" t="n">
-        <v>5610.279961652532</v>
+        <v>3747.615656366287</v>
       </c>
       <c r="S20" t="n">
-        <v>2269.041179729353</v>
+        <v>341.5230985483031</v>
       </c>
       <c r="T20" t="n">
-        <v>207.0693586440362</v>
+        <v>1262.430266287841</v>
       </c>
       <c r="U20" t="n">
-        <v>721.0166211311746</v>
+        <v>62.18456523385049</v>
       </c>
       <c r="V20" t="n">
-        <v>37.88514523213961</v>
+        <v>5010.047377158528</v>
       </c>
       <c r="W20" t="n">
-        <v>2990.057800860527</v>
+        <v>403.711664728555</v>
       </c>
       <c r="X20" t="n">
-        <v>244.9545038761758</v>
+        <v>542.0890446071551</v>
       </c>
       <c r="Y20" t="n">
-        <v>355.0668180957725</v>
+        <v>33.57892508623665</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.85621293251426</v>
+        <v>375.0051634079215</v>
       </c>
       <c r="AA20" t="n">
-        <v>250.1696957894537</v>
+        <v>62.90229867832191</v>
       </c>
       <c r="AB20" t="n">
-        <v>39.44393249776412</v>
+        <v>55340.3317434851</v>
       </c>
       <c r="AC20" t="n">
-        <v>36316.36778257009</v>
+        <v>1844.677496479168</v>
       </c>
       <c r="AD20" t="n">
-        <v>1844.677496479168</v>
+        <v>11112.64425180886</v>
       </c>
       <c r="AE20" t="n">
-        <v>7060.331304277848</v>
+        <v>4418.548634061178</v>
       </c>
       <c r="AF20" t="n">
-        <v>2765.321416993861</v>
+        <v>386.3869987826608</v>
       </c>
       <c r="AG20" t="n">
-        <v>246.933758303431</v>
+        <v>1070.025658073136</v>
       </c>
       <c r="AH20" t="n">
-        <v>666.7015339660677</v>
+        <v>54.94190382534831</v>
       </c>
       <c r="AI20" t="n">
-        <v>35.22452263748681</v>
+        <v>5488.572429907338</v>
       </c>
       <c r="AJ20" t="n">
-        <v>3432.022950959929</v>
+        <v>441.3302219086139</v>
       </c>
       <c r="AK20" t="n">
-        <v>282.1582809409178</v>
+        <v>605.1157069555409</v>
       </c>
       <c r="AL20" t="n">
-        <v>403.0163223466149</v>
+        <v>32.4951938160905</v>
       </c>
       <c r="AM20" t="n">
-        <v>20.16893551270519</v>
+        <v>437.0770072933522</v>
       </c>
       <c r="AN20" t="n">
-        <v>294.7675093293506</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>50.95635227158122</v>
+        <v>78.5430836159962</v>
       </c>
     </row>
     <row r="21">
@@ -3059,85 +2997,82 @@
         <v>153.038421645682</v>
       </c>
       <c r="O21" t="n">
-        <v>349.772084235185</v>
+        <v>52783.86925469408</v>
       </c>
       <c r="P21" t="n">
-        <v>34598.48144648707</v>
+        <v>1759.462783632762</v>
       </c>
       <c r="Q21" t="n">
-        <v>1759.462783632762</v>
+        <v>9030.941878939713</v>
       </c>
       <c r="R21" t="n">
-        <v>5668.266904654259</v>
+        <v>3569.636954986324</v>
       </c>
       <c r="S21" t="n">
-        <v>2172.720048933022</v>
+        <v>319.8488134016205</v>
       </c>
       <c r="T21" t="n">
-        <v>200.4465943517561</v>
+        <v>1078.068212858471</v>
       </c>
       <c r="U21" t="n">
-        <v>677.2606526622922</v>
+        <v>53.17681418962741</v>
       </c>
       <c r="V21" t="n">
-        <v>34.48907649282667</v>
+        <v>4647.707307973371</v>
       </c>
       <c r="W21" t="n">
-        <v>2849.980701595314</v>
+        <v>373.0200742835483</v>
       </c>
       <c r="X21" t="n">
-        <v>234.9356708445828</v>
+        <v>543.6989583134881</v>
       </c>
       <c r="Y21" t="n">
-        <v>352.9767515994265</v>
+        <v>30.71694827533892</v>
       </c>
       <c r="Z21" t="n">
-        <v>20.04671198623745</v>
+        <v>375.9253743822197</v>
       </c>
       <c r="AA21" t="n">
-        <v>247.5183118972598</v>
+        <v>57.51423030512271</v>
       </c>
       <c r="AB21" t="n">
-        <v>37.23988668299315</v>
+        <v>57242.72631392199</v>
       </c>
       <c r="AC21" t="n">
-        <v>37269.21944373627</v>
+        <v>1908.088670830058</v>
       </c>
       <c r="AD21" t="n">
-        <v>1908.088670830058</v>
+        <v>11345.26241038703</v>
       </c>
       <c r="AE21" t="n">
-        <v>7223.635866557566</v>
+        <v>4397.473081987436</v>
       </c>
       <c r="AF21" t="n">
-        <v>2705.39666338647</v>
+        <v>386.4076306903241</v>
       </c>
       <c r="AG21" t="n">
-        <v>243.5561361864811</v>
+        <v>982.9069586382466</v>
       </c>
       <c r="AH21" t="n">
-        <v>631.059919298993</v>
+        <v>50.94368247861264</v>
       </c>
       <c r="AI21" t="n">
-        <v>32.79129887192315</v>
+        <v>5380.38061577081</v>
       </c>
       <c r="AJ21" t="n">
-        <v>3336.456582685463</v>
+        <v>437.3458569245573</v>
       </c>
       <c r="AK21" t="n">
-        <v>276.3474350584042</v>
+        <v>632.6219703186866</v>
       </c>
       <c r="AL21" t="n">
-        <v>415.6135433574692</v>
+        <v>30.77228374288125</v>
       </c>
       <c r="AM21" t="n">
-        <v>19.67151376128282</v>
+        <v>458.9574820133201</v>
       </c>
       <c r="AN21" t="n">
-        <v>307.0053889759955</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>49.20334105632756</v>
+        <v>75.37808280445887</v>
       </c>
     </row>
     <row r="22">
@@ -3184,85 +3119,82 @@
         <v>151.1487186780608</v>
       </c>
       <c r="O22" t="n">
-        <v>347.9117022961772</v>
+        <v>51372.79262918175</v>
       </c>
       <c r="P22" t="n">
-        <v>34421.36378731357</v>
+        <v>1712.424084866806</v>
       </c>
       <c r="Q22" t="n">
-        <v>1712.424084866806</v>
+        <v>8781.515272205344</v>
       </c>
       <c r="R22" t="n">
-        <v>5684.805052726618</v>
+        <v>3619.131446392401</v>
       </c>
       <c r="S22" t="n">
-        <v>2234.915338131968</v>
+        <v>326.7049007443475</v>
       </c>
       <c r="T22" t="n">
-        <v>205.0411536977292</v>
+        <v>1128.612461680394</v>
       </c>
       <c r="U22" t="n">
-        <v>682.7077473473041</v>
+        <v>55.50370216002104</v>
       </c>
       <c r="V22" t="n">
-        <v>34.937052412634</v>
+        <v>4747.745453646839</v>
       </c>
       <c r="W22" t="n">
-        <v>2917.623085479273</v>
+        <v>382.2122496922526</v>
       </c>
       <c r="X22" t="n">
-        <v>239.9782061103632</v>
+        <v>541.866926808773</v>
       </c>
       <c r="Y22" t="n">
-        <v>357.8853059611575</v>
+        <v>32.03409154676807</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.0890644561346</v>
+        <v>378.1721595980516</v>
       </c>
       <c r="AA22" t="n">
-        <v>255.7853399437579</v>
+        <v>59.18255079220987</v>
       </c>
       <c r="AB22" t="n">
-        <v>38.0049211905156</v>
+        <v>53851.26123176211</v>
       </c>
       <c r="AC22" t="n">
-        <v>36717.86280318964</v>
+        <v>1795.044947539181</v>
       </c>
       <c r="AD22" t="n">
-        <v>1795.044947539181</v>
+        <v>10593.02252237132</v>
       </c>
       <c r="AE22" t="n">
-        <v>7102.721606416762</v>
+        <v>3907.520239044041</v>
       </c>
       <c r="AF22" t="n">
-        <v>2616.75157408863</v>
+        <v>354.2083275357769</v>
       </c>
       <c r="AG22" t="n">
-        <v>237.1630361412769</v>
+        <v>932.9094431825259</v>
       </c>
       <c r="AH22" t="n">
-        <v>582.9773718242567</v>
+        <v>47.00985133309839</v>
       </c>
       <c r="AI22" t="n">
-        <v>31.39846521611284</v>
+        <v>4840.436479526719</v>
       </c>
       <c r="AJ22" t="n">
-        <v>3199.728945912887</v>
+        <v>401.2212686182625</v>
       </c>
       <c r="AK22" t="n">
-        <v>268.5615013573898</v>
+        <v>592.0895703925202</v>
       </c>
       <c r="AL22" t="n">
-        <v>411.5311365544624</v>
+        <v>28.65785881496955</v>
       </c>
       <c r="AM22" t="n">
-        <v>19.27546388737785</v>
+        <v>433.9795612801158</v>
       </c>
       <c r="AN22" t="n">
-        <v>305.9829125302305</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>49.41254796118817</v>
+        <v>72.08863834292683</v>
       </c>
     </row>
     <row r="23">
@@ -3309,85 +3241,82 @@
         <v>150.5058673680677</v>
       </c>
       <c r="O23" t="n">
-        <v>362.4191010727408</v>
+        <v>55212.64645598955</v>
       </c>
       <c r="P23" t="n">
-        <v>34892.31771721868</v>
+        <v>1840.420738696589</v>
       </c>
       <c r="Q23" t="n">
-        <v>1840.420738696589</v>
+        <v>9673.488827083103</v>
       </c>
       <c r="R23" t="n">
-        <v>5668.801823049985</v>
+        <v>3885.342346277137</v>
       </c>
       <c r="S23" t="n">
-        <v>2202.268401074251</v>
+        <v>347.4284456626563</v>
       </c>
       <c r="T23" t="n">
-        <v>200.5346824771154</v>
+        <v>1329.458006802571</v>
       </c>
       <c r="U23" t="n">
-        <v>716.0699461893983</v>
+        <v>63.25259294911482</v>
       </c>
       <c r="V23" t="n">
-        <v>36.44070855961284</v>
+        <v>5214.798213602779</v>
       </c>
       <c r="W23" t="n">
-        <v>2918.338347263649</v>
+        <v>410.6764137969936</v>
       </c>
       <c r="X23" t="n">
-        <v>236.9753910367283</v>
+        <v>547.1342895960125</v>
       </c>
       <c r="Y23" t="n">
-        <v>343.289376800813</v>
+        <v>29.7729141175311</v>
       </c>
       <c r="Z23" t="n">
-        <v>17.5403377374527</v>
+        <v>375.6139510733013</v>
       </c>
       <c r="AA23" t="n">
-        <v>245.6637316756971</v>
+        <v>58.51918609960806</v>
       </c>
       <c r="AB23" t="n">
-        <v>35.57225964790409</v>
+        <v>57338.8392958616</v>
       </c>
       <c r="AC23" t="n">
-        <v>38240.10568159409</v>
+        <v>1911.298854394543</v>
       </c>
       <c r="AD23" t="n">
-        <v>1911.298854394543</v>
+        <v>11408.67121182446</v>
       </c>
       <c r="AE23" t="n">
-        <v>7329.581614122912</v>
+        <v>4329.517639180008</v>
       </c>
       <c r="AF23" t="n">
-        <v>2712.658468599482</v>
+        <v>388.4877402322878</v>
       </c>
       <c r="AG23" t="n">
-        <v>247.3810986509289</v>
+        <v>1184.701054572786</v>
       </c>
       <c r="AH23" t="n">
-        <v>681.2266461787199</v>
+        <v>53.39396980046156</v>
       </c>
       <c r="AI23" t="n">
-        <v>33.26320821016937</v>
+        <v>5514.211597503956</v>
       </c>
       <c r="AJ23" t="n">
-        <v>3393.885114778202</v>
+        <v>441.8765955003794</v>
       </c>
       <c r="AK23" t="n">
-        <v>280.6443068610983</v>
+        <v>633.2770710723582</v>
       </c>
       <c r="AL23" t="n">
-        <v>425.8449090808892</v>
+        <v>31.20337361146857</v>
       </c>
       <c r="AM23" t="n">
-        <v>19.80536616112095</v>
+        <v>460.5391571163261</v>
       </c>
       <c r="AN23" t="n">
-        <v>315.9068937382289</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>50.64529625980327</v>
+        <v>78.62216154137279</v>
       </c>
     </row>
     <row r="24">
@@ -3434,85 +3363,82 @@
         <v>154.7147697536484</v>
       </c>
       <c r="O24" t="n">
-        <v>350.2774229222682</v>
+        <v>51383.39278267297</v>
       </c>
       <c r="P24" t="n">
-        <v>33992.26043936817</v>
+        <v>1712.781520710925</v>
       </c>
       <c r="Q24" t="n">
-        <v>1712.781520710925</v>
+        <v>8717.931790769544</v>
       </c>
       <c r="R24" t="n">
-        <v>5519.997035663108</v>
+        <v>3519.791447713736</v>
       </c>
       <c r="S24" t="n">
-        <v>2137.323973633547</v>
+        <v>328.9311933949969</v>
       </c>
       <c r="T24" t="n">
-        <v>201.1277040003386</v>
+        <v>1158.899746438213</v>
       </c>
       <c r="U24" t="n">
-        <v>717.7001933046928</v>
+        <v>56.62704825758081</v>
       </c>
       <c r="V24" t="n">
-        <v>35.82971849865559</v>
+        <v>4678.686696107292</v>
       </c>
       <c r="W24" t="n">
-        <v>2855.02416693824</v>
+        <v>385.5592654307808</v>
       </c>
       <c r="X24" t="n">
-        <v>236.9574224989942</v>
+        <v>547.498386409206</v>
       </c>
       <c r="Y24" t="n">
-        <v>355.7660606338986</v>
+        <v>38.3330725027056</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.70140136056034</v>
+        <v>374.332573303929</v>
       </c>
       <c r="AA24" t="n">
-        <v>250.0322700101503</v>
+        <v>58.87026460513159</v>
       </c>
       <c r="AB24" t="n">
-        <v>36.93405144802529</v>
+        <v>54458.87215503831</v>
       </c>
       <c r="AC24" t="n">
-        <v>36751.45328391913</v>
+        <v>1815.299462710909</v>
       </c>
       <c r="AD24" t="n">
-        <v>1815.299462710909</v>
+        <v>10560.33795027997</v>
       </c>
       <c r="AE24" t="n">
-        <v>6950.506746704608</v>
+        <v>4077.817510862262</v>
       </c>
       <c r="AF24" t="n">
-        <v>2612.969241480618</v>
+        <v>374.7843680335893</v>
       </c>
       <c r="AG24" t="n">
-        <v>242.240282644954</v>
+        <v>1016.779837396904</v>
       </c>
       <c r="AH24" t="n">
-        <v>683.0340106569344</v>
+        <v>54.43693096384577</v>
       </c>
       <c r="AI24" t="n">
-        <v>35.45939861872968</v>
+        <v>5094.594620223204</v>
       </c>
       <c r="AJ24" t="n">
-        <v>3296.003252137552</v>
+        <v>429.2165207232833</v>
       </c>
       <c r="AK24" t="n">
-        <v>277.6996812636837</v>
+        <v>617.2086684626885</v>
       </c>
       <c r="AL24" t="n">
-        <v>415.4216937560565</v>
+        <v>32.73795817279215</v>
       </c>
       <c r="AM24" t="n">
-        <v>20.42177920470827</v>
+        <v>456.3768822370482</v>
       </c>
       <c r="AN24" t="n">
-        <v>310.6597018647203</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>49.28271903292116</v>
+        <v>76.89674646440429</v>
       </c>
     </row>
     <row r="25">
@@ -3559,85 +3485,82 @@
         <v>153.7374929849608</v>
       </c>
       <c r="O25" t="n">
-        <v>367.4000301946172</v>
+        <v>55829.65460741609</v>
       </c>
       <c r="P25" t="n">
-        <v>34299.25339977763</v>
+        <v>1860.989512265233</v>
       </c>
       <c r="Q25" t="n">
-        <v>1860.989512265233</v>
+        <v>9558.808588858943</v>
       </c>
       <c r="R25" t="n">
-        <v>5652.221805935703</v>
+        <v>3952.762505389788</v>
       </c>
       <c r="S25" t="n">
-        <v>2245.155141092299</v>
+        <v>361.2493435415311</v>
       </c>
       <c r="T25" t="n">
-        <v>207.2836834626553</v>
+        <v>1302.962297698924</v>
       </c>
       <c r="U25" t="n">
-        <v>715.3144094360666</v>
+        <v>64.10237412774768</v>
       </c>
       <c r="V25" t="n">
-        <v>37.27283393391777</v>
+        <v>5255.726809230569</v>
       </c>
       <c r="W25" t="n">
-        <v>2960.469550528366</v>
+        <v>425.3507904552771</v>
       </c>
       <c r="X25" t="n">
-        <v>244.5565173965731</v>
+        <v>597.0782974213728</v>
       </c>
       <c r="Y25" t="n">
-        <v>358.2483385890673</v>
+        <v>33.34198800236244</v>
       </c>
       <c r="Z25" t="n">
-        <v>19.62300531241071</v>
+        <v>409.5951472652373</v>
       </c>
       <c r="AA25" t="n">
-        <v>251.1631526529123</v>
+        <v>62.75891363180268</v>
       </c>
       <c r="AB25" t="n">
-        <v>36.76255219263835</v>
+        <v>58580.64630189051</v>
       </c>
       <c r="AC25" t="n">
-        <v>37592.57835366268</v>
+        <v>1952.689565527688</v>
       </c>
       <c r="AD25" t="n">
-        <v>1952.689565527688</v>
+        <v>11672.07291950944</v>
       </c>
       <c r="AE25" t="n">
-        <v>7308.258733327745</v>
+        <v>4436.951302595093</v>
       </c>
       <c r="AF25" t="n">
-        <v>2731.649827937924</v>
+        <v>399.3140992611969</v>
       </c>
       <c r="AG25" t="n">
-        <v>248.2227373843609</v>
+        <v>1135.846044614427</v>
       </c>
       <c r="AH25" t="n">
-        <v>679.5677130182032</v>
+        <v>54.52731355409873</v>
       </c>
       <c r="AI25" t="n">
-        <v>34.39454835537219</v>
+        <v>5572.788347394305</v>
       </c>
       <c r="AJ25" t="n">
-        <v>3411.217540956127</v>
+        <v>453.8359818788539</v>
       </c>
       <c r="AK25" t="n">
-        <v>282.6172857397331</v>
+        <v>647.0741738507825</v>
       </c>
       <c r="AL25" t="n">
-        <v>416.523829033327</v>
+        <v>29.60149645022488</v>
       </c>
       <c r="AM25" t="n">
-        <v>19.08447607409153</v>
+        <v>465.5478768538981</v>
       </c>
       <c r="AN25" t="n">
-        <v>303.6551152798405</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>48.96683013112239</v>
+        <v>79.58491722198985</v>
       </c>
     </row>
     <row r="26">
@@ -3684,85 +3607,82 @@
         <v>158.1379531211359</v>
       </c>
       <c r="O26" t="n">
-        <v>369.7407125606832</v>
+        <v>54517.47412658099</v>
       </c>
       <c r="P26" t="n">
-        <v>34654.80291085583</v>
+        <v>1817.24787429</v>
       </c>
       <c r="Q26" t="n">
-        <v>1817.24787429</v>
+        <v>9372.54992585408</v>
       </c>
       <c r="R26" t="n">
-        <v>5575.776150441462</v>
+        <v>4024.567114418985</v>
       </c>
       <c r="S26" t="n">
-        <v>2246.406750778716</v>
+        <v>364.121158695181</v>
       </c>
       <c r="T26" t="n">
-        <v>211.5442628367946</v>
+        <v>1400.103567372264</v>
       </c>
       <c r="U26" t="n">
-        <v>792.9744671577851</v>
+        <v>67.07879351605139</v>
       </c>
       <c r="V26" t="n">
-        <v>39.87686753584828</v>
+        <v>5424.664898706921</v>
       </c>
       <c r="W26" t="n">
-        <v>3039.381217936501</v>
+        <v>431.2032890648168</v>
       </c>
       <c r="X26" t="n">
-        <v>251.4211303726429</v>
+        <v>572.2019015607659</v>
       </c>
       <c r="Y26" t="n">
-        <v>355.9969544501359</v>
+        <v>35.38594836402265</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.68427206088858</v>
+        <v>388.2191931652944</v>
       </c>
       <c r="AA26" t="n">
-        <v>249.0184657756897</v>
+        <v>63.34579608838046</v>
       </c>
       <c r="AB26" t="n">
-        <v>39.44647358632049</v>
+        <v>57142.81549807615</v>
       </c>
       <c r="AC26" t="n">
-        <v>36967.74025632323</v>
+        <v>1904.75781894394</v>
       </c>
       <c r="AD26" t="n">
-        <v>1904.75781894394</v>
+        <v>11092.79175022589</v>
       </c>
       <c r="AE26" t="n">
-        <v>6908.922596482973</v>
+        <v>4242.256472813745</v>
       </c>
       <c r="AF26" t="n">
-        <v>2582.049825752004</v>
+        <v>398.1693248487072</v>
       </c>
       <c r="AG26" t="n">
-        <v>246.5403810357031</v>
+        <v>1156.676438277128</v>
       </c>
       <c r="AH26" t="n">
-        <v>712.6539440576112</v>
+        <v>59.00066308565441</v>
       </c>
       <c r="AI26" t="n">
-        <v>36.56474700027665</v>
+        <v>5398.931940999979</v>
       </c>
       <c r="AJ26" t="n">
-        <v>3294.703769809616</v>
+        <v>457.1747140870424</v>
       </c>
       <c r="AK26" t="n">
-        <v>283.1051280359798</v>
+        <v>614.3288345772496</v>
       </c>
       <c r="AL26" t="n">
-        <v>400.3102641043333</v>
+        <v>32.18593241420702</v>
       </c>
       <c r="AM26" t="n">
-        <v>21.35359626662684</v>
+        <v>441.8793287004021</v>
       </c>
       <c r="AN26" t="n">
-        <v>293.3068301175064</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>50.6558365428404</v>
+        <v>80.78246860276224</v>
       </c>
     </row>
     <row r="27">
@@ -3809,85 +3729,82 @@
         <v>154.4531112569653</v>
       </c>
       <c r="O27" t="n">
-        <v>361.9874930915738</v>
+        <v>53752.6824189546</v>
       </c>
       <c r="P27" t="n">
-        <v>34091.86942662652</v>
+        <v>1791.758208894942</v>
       </c>
       <c r="Q27" t="n">
-        <v>1791.758208894942</v>
+        <v>9186.550133036561</v>
       </c>
       <c r="R27" t="n">
-        <v>5598.189737422012</v>
+        <v>3639.71962371968</v>
       </c>
       <c r="S27" t="n">
-        <v>2177.155242790308</v>
+        <v>332.8415661487196</v>
       </c>
       <c r="T27" t="n">
-        <v>203.0691496790721</v>
+        <v>1184.514616871866</v>
       </c>
       <c r="U27" t="n">
-        <v>694.2111829688477</v>
+        <v>61.18109724712831</v>
       </c>
       <c r="V27" t="n">
-        <v>36.6396274013437</v>
+        <v>4824.237054626448</v>
       </c>
       <c r="W27" t="n">
-        <v>2871.366425759155</v>
+        <v>394.0148664801074</v>
       </c>
       <c r="X27" t="n">
-        <v>239.7087770804158</v>
+        <v>563.16950830399</v>
       </c>
       <c r="Y27" t="n">
-        <v>353.379617951095</v>
+        <v>32.4426027567369</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.77448179355483</v>
+        <v>379.5482927800947</v>
       </c>
       <c r="AA27" t="n">
-        <v>246.2128831783834</v>
+        <v>65.67623646384403</v>
       </c>
       <c r="AB27" t="n">
-        <v>38.33464107909124</v>
+        <v>56568.54272999852</v>
       </c>
       <c r="AC27" t="n">
-        <v>36377.96380920215</v>
+        <v>1885.616759901018</v>
       </c>
       <c r="AD27" t="n">
-        <v>1885.616759901018</v>
+        <v>11088.23913249654</v>
       </c>
       <c r="AE27" t="n">
-        <v>6943.078457675453</v>
+        <v>4350.161333236009</v>
       </c>
       <c r="AF27" t="n">
-        <v>2615.231502339391</v>
+        <v>392.7615336879081</v>
       </c>
       <c r="AG27" t="n">
-        <v>241.6205225635019</v>
+        <v>1159.620495305371</v>
       </c>
       <c r="AH27" t="n">
-        <v>674.6412149322889</v>
+        <v>59.07421416472359</v>
       </c>
       <c r="AI27" t="n">
-        <v>35.78279852580544</v>
+        <v>5509.77801323952</v>
       </c>
       <c r="AJ27" t="n">
-        <v>3289.872717271679</v>
+        <v>451.8358144915834</v>
       </c>
       <c r="AK27" t="n">
-        <v>277.4033210893073</v>
+        <v>629.8228850121403</v>
       </c>
       <c r="AL27" t="n">
-        <v>412.5002341311892</v>
+        <v>32.30326065728783</v>
       </c>
       <c r="AM27" t="n">
-        <v>20.28016782373884</v>
+        <v>455.6787980868738</v>
       </c>
       <c r="AN27" t="n">
-        <v>300.751221848238</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>50.20584696398431</v>
+        <v>80.63155595047903</v>
       </c>
     </row>
     <row r="28">
@@ -3934,85 +3851,82 @@
         <v>148.6786259820333</v>
       </c>
       <c r="O28" t="n">
-        <v>350.4681465822249</v>
+        <v>53581.13021110355</v>
       </c>
       <c r="P28" t="n">
-        <v>35679.39170225633</v>
+        <v>1786.036664186578</v>
       </c>
       <c r="Q28" t="n">
-        <v>1786.036664186578</v>
+        <v>9218.97305285672</v>
       </c>
       <c r="R28" t="n">
-        <v>5836.672990952325</v>
+        <v>3631.145523472959</v>
       </c>
       <c r="S28" t="n">
-        <v>2235.891556622821</v>
+        <v>337.0902181255635</v>
       </c>
       <c r="T28" t="n">
-        <v>208.4699268183513</v>
+        <v>1206.035372624411</v>
       </c>
       <c r="U28" t="n">
-        <v>695.8654041658505</v>
+        <v>58.79149902335786</v>
       </c>
       <c r="V28" t="n">
-        <v>36.38631548762478</v>
+        <v>4837.180438191529</v>
       </c>
       <c r="W28" t="n">
-        <v>2931.756960788671</v>
+        <v>395.8877917558632</v>
       </c>
       <c r="X28" t="n">
-        <v>244.8562423059761</v>
+        <v>550.6462726198249</v>
       </c>
       <c r="Y28" t="n">
-        <v>361.0219261931293</v>
+        <v>32.7289039634005</v>
       </c>
       <c r="Z28" t="n">
-        <v>20.70928387914706</v>
+        <v>387.9747943462422</v>
       </c>
       <c r="AA28" t="n">
-        <v>259.6158321105985</v>
+        <v>60.092506227645</v>
       </c>
       <c r="AB28" t="n">
-        <v>38.07865134966737</v>
+        <v>56365.12958580288</v>
       </c>
       <c r="AC28" t="n">
-        <v>38002.0538168827</v>
+        <v>1878.839320943502</v>
       </c>
       <c r="AD28" t="n">
-        <v>1878.839320943502</v>
+        <v>10927.42977693513</v>
       </c>
       <c r="AE28" t="n">
-        <v>7217.075224763899</v>
+        <v>4280.929550455508</v>
       </c>
       <c r="AF28" t="n">
-        <v>2708.651418051802</v>
+        <v>381.9773864568461</v>
       </c>
       <c r="AG28" t="n">
-        <v>248.2612545749682</v>
+        <v>1065.334513877916</v>
       </c>
       <c r="AH28" t="n">
-        <v>663.7401820936558</v>
+        <v>53.8882039194734</v>
       </c>
       <c r="AI28" t="n">
-        <v>36.18932769467581</v>
+        <v>5346.260548647073</v>
       </c>
       <c r="AJ28" t="n">
-        <v>3372.391600145458</v>
+        <v>435.8680664740115</v>
       </c>
       <c r="AK28" t="n">
-        <v>284.450582269644</v>
+        <v>602.7044525315522</v>
       </c>
       <c r="AL28" t="n">
-        <v>411.0629666027823</v>
+        <v>33.85660922902137</v>
       </c>
       <c r="AM28" t="n">
-        <v>21.63754281344204</v>
+        <v>439.7004947646363</v>
       </c>
       <c r="AN28" t="n">
-        <v>305.5317374925018</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>49.77913156284855</v>
+        <v>75.2875858903177</v>
       </c>
     </row>
     <row r="29">
@@ -4059,85 +3973,82 @@
         <v>159.1100742058066</v>
       </c>
       <c r="O29" t="n">
-        <v>367.9791739459772</v>
+        <v>55120.27091554124</v>
       </c>
       <c r="P29" t="n">
-        <v>33431.35551523119</v>
+        <v>1837.340813835254</v>
       </c>
       <c r="Q29" t="n">
-        <v>1837.340813835254</v>
+        <v>9293.013242495861</v>
       </c>
       <c r="R29" t="n">
-        <v>5320.695999916009</v>
+        <v>3905.569248180736</v>
       </c>
       <c r="S29" t="n">
-        <v>2167.611213695991</v>
+        <v>366.990149675344</v>
       </c>
       <c r="T29" t="n">
-        <v>205.3367182303865</v>
+        <v>1300.899818831192</v>
       </c>
       <c r="U29" t="n">
-        <v>731.2489856141743</v>
+        <v>66.91941046468773</v>
       </c>
       <c r="V29" t="n">
-        <v>38.29367524634015</v>
+        <v>5206.468912353342</v>
       </c>
       <c r="W29" t="n">
-        <v>2898.860199310166</v>
+        <v>433.9123909239608</v>
       </c>
       <c r="X29" t="n">
-        <v>243.6303934767267</v>
+        <v>587.5453780214498</v>
       </c>
       <c r="Y29" t="n">
-        <v>347.3967496159978</v>
+        <v>38.32410150047532</v>
       </c>
       <c r="Z29" t="n">
-        <v>20.84079138366899</v>
+        <v>390.6054585969326</v>
       </c>
       <c r="AA29" t="n">
-        <v>243.083299285441</v>
+        <v>68.5414953434117</v>
       </c>
       <c r="AB29" t="n">
-        <v>37.99797637688938</v>
+        <v>57492.43629232483</v>
       </c>
       <c r="AC29" t="n">
-        <v>37406.89348798996</v>
+        <v>1916.412161794423</v>
       </c>
       <c r="AD29" t="n">
-        <v>1916.412161794423</v>
+        <v>10934.60792834799</v>
       </c>
       <c r="AE29" t="n">
-        <v>6870.901392618177</v>
+        <v>4404.377157531792</v>
       </c>
       <c r="AF29" t="n">
-        <v>2676.255707676931</v>
+        <v>403.4052722261598</v>
       </c>
       <c r="AG29" t="n">
-        <v>248.4040793523529</v>
+        <v>1202.198457955292</v>
       </c>
       <c r="AH29" t="n">
-        <v>728.8170892624914</v>
+        <v>59.75616696566702</v>
       </c>
       <c r="AI29" t="n">
-        <v>37.69576170274123</v>
+        <v>5606.572246595148</v>
       </c>
       <c r="AJ29" t="n">
-        <v>3405.072796939422</v>
+        <v>463.1563838575016</v>
       </c>
       <c r="AK29" t="n">
-        <v>286.0998410550942</v>
+        <v>646.596461671694</v>
       </c>
       <c r="AL29" t="n">
-        <v>427.0270428218418</v>
+        <v>35.78543143324216</v>
       </c>
       <c r="AM29" t="n">
-        <v>20.55283557310694</v>
+        <v>462.252117520762</v>
       </c>
       <c r="AN29" t="n">
-        <v>313.2092342622556</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>54.99976100484823</v>
+        <v>88.35920323383351</v>
       </c>
     </row>
     <row r="30">
@@ -4184,85 +4095,82 @@
         <v>157.6001047557977</v>
       </c>
       <c r="O30" t="n">
-        <v>369.1111677200911</v>
+        <v>55220.71992355855</v>
       </c>
       <c r="P30" t="n">
-        <v>34864.11212484748</v>
+        <v>1840.691181371027</v>
       </c>
       <c r="Q30" t="n">
-        <v>1840.691181371027</v>
+        <v>9263.125872615445</v>
       </c>
       <c r="R30" t="n">
-        <v>5640.107583619392</v>
+        <v>3837.437673727532</v>
       </c>
       <c r="S30" t="n">
-        <v>2225.338930842111</v>
+        <v>342.7171211539625</v>
       </c>
       <c r="T30" t="n">
-        <v>208.1254751860723</v>
+        <v>1206.052498964058</v>
       </c>
       <c r="U30" t="n">
-        <v>709.0280712126909</v>
+        <v>59.67059407957207</v>
       </c>
       <c r="V30" t="n">
-        <v>36.75554467754579</v>
+        <v>5043.48952004852</v>
       </c>
       <c r="W30" t="n">
-        <v>2934.367002054802</v>
+        <v>402.3861404319961</v>
       </c>
       <c r="X30" t="n">
-        <v>244.8810198636181</v>
+        <v>561.015958307717</v>
       </c>
       <c r="Y30" t="n">
-        <v>349.6957439522586</v>
+        <v>33.51628932827747</v>
       </c>
       <c r="Z30" t="n">
-        <v>20.89393391722018</v>
+        <v>395.0692893418901</v>
       </c>
       <c r="AA30" t="n">
-        <v>252.3971411522376</v>
+        <v>66.60777281631384</v>
       </c>
       <c r="AB30" t="n">
-        <v>39.27353157818145</v>
+        <v>58565.59083420088</v>
       </c>
       <c r="AC30" t="n">
-        <v>37429.66285101039</v>
+        <v>1952.186766226594</v>
       </c>
       <c r="AD30" t="n">
-        <v>1952.186766226594</v>
+        <v>11341.71766276078</v>
       </c>
       <c r="AE30" t="n">
-        <v>7114.895675391576</v>
+        <v>4357.433458463092</v>
       </c>
       <c r="AF30" t="n">
-        <v>2670.458396621167</v>
+        <v>402.960041149546</v>
       </c>
       <c r="AG30" t="n">
-        <v>253.1422463305438</v>
+        <v>1190.854925001836</v>
       </c>
       <c r="AH30" t="n">
-        <v>718.6738101644895</v>
+        <v>62.24850970659764</v>
       </c>
       <c r="AI30" t="n">
-        <v>38.56829505863825</v>
+        <v>5548.295377866927</v>
       </c>
       <c r="AJ30" t="n">
-        <v>3389.132206785657</v>
+        <v>465.2111077969673</v>
       </c>
       <c r="AK30" t="n">
-        <v>291.7105413891821</v>
+        <v>629.4703219604879</v>
       </c>
       <c r="AL30" t="n">
-        <v>407.6326233109561</v>
+        <v>32.74927804047653</v>
       </c>
       <c r="AM30" t="n">
-        <v>21.82508420876015</v>
+        <v>456.6215133705028</v>
       </c>
       <c r="AN30" t="n">
-        <v>299.407676741912</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>51.44075685622662</v>
+        <v>81.88593680140984</v>
       </c>
     </row>
     <row r="31">
@@ -4309,85 +4217,82 @@
         <v>156.0308471147043</v>
       </c>
       <c r="O31" t="n">
-        <v>354.9255170844233</v>
+        <v>52516.89192556134</v>
       </c>
       <c r="P31" t="n">
-        <v>33516.65734905977</v>
+        <v>1750.562079453754</v>
       </c>
       <c r="Q31" t="n">
-        <v>1750.562079453754</v>
+        <v>9078.199133463124</v>
       </c>
       <c r="R31" t="n">
-        <v>5496.85388524893</v>
+        <v>3703.951708278484</v>
       </c>
       <c r="S31" t="n">
-        <v>2150.025474376947</v>
+        <v>346.8828955988985</v>
       </c>
       <c r="T31" t="n">
-        <v>205.9506042655226</v>
+        <v>1284.654293311047</v>
       </c>
       <c r="U31" t="n">
-        <v>743.4619498695761</v>
+        <v>64.562021571858</v>
       </c>
       <c r="V31" t="n">
-        <v>37.72614083576978</v>
+        <v>4988.604455457453</v>
       </c>
       <c r="W31" t="n">
-        <v>2893.487424246523</v>
+        <v>411.4509253219682</v>
       </c>
       <c r="X31" t="n">
-        <v>243.6767451012923</v>
+        <v>561.7213908828788</v>
       </c>
       <c r="Y31" t="n">
-        <v>355.8456513647739</v>
+        <v>35.30554171617212</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.93976002252496</v>
+        <v>386.2702992013683</v>
       </c>
       <c r="AA31" t="n">
-        <v>253.8986440591606</v>
+        <v>59.69520464112064</v>
       </c>
       <c r="AB31" t="n">
-        <v>36.0489597629708</v>
+        <v>56328.10977468202</v>
       </c>
       <c r="AC31" t="n">
-        <v>36537.47429842435</v>
+        <v>1877.603723156111</v>
       </c>
       <c r="AD31" t="n">
-        <v>1877.603723156111</v>
+        <v>11265.45070758054</v>
       </c>
       <c r="AE31" t="n">
-        <v>7016.138759744467</v>
+        <v>4350.752906360399</v>
       </c>
       <c r="AF31" t="n">
-        <v>2694.513411934596</v>
+        <v>402.4994552636782</v>
       </c>
       <c r="AG31" t="n">
-        <v>250.3305838884524</v>
+        <v>1119.452430221237</v>
       </c>
       <c r="AH31" t="n">
-        <v>675.0530214017805</v>
+        <v>58.49549755752174</v>
       </c>
       <c r="AI31" t="n">
-        <v>36.44725991619698</v>
+        <v>5470.202341112492</v>
       </c>
       <c r="AJ31" t="n">
-        <v>3369.566433336377</v>
+        <v>461.0024550962569</v>
       </c>
       <c r="AK31" t="n">
-        <v>286.7778438046494</v>
+        <v>623.7917116721479</v>
       </c>
       <c r="AL31" t="n">
-        <v>407.0217989554459</v>
+        <v>35.21655241355482</v>
       </c>
       <c r="AM31" t="n">
-        <v>22.94063633010794</v>
+        <v>433.19371975339</v>
       </c>
       <c r="AN31" t="n">
-        <v>290.2100880075809</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>50.44923773401117</v>
+        <v>82.7721265597807</v>
       </c>
     </row>
     <row r="32">
@@ -4434,85 +4339,82 @@
         <v>161.22939616356</v>
       </c>
       <c r="O32" t="n">
-        <v>348.6048283815739</v>
+        <v>51497.13951193667</v>
       </c>
       <c r="P32" t="n">
-        <v>36820.286703463</v>
+        <v>1716.574355686535</v>
       </c>
       <c r="Q32" t="n">
-        <v>1716.574355686535</v>
+        <v>8662.74178930034</v>
       </c>
       <c r="R32" t="n">
-        <v>5987.967053194073</v>
+        <v>3436.833736367735</v>
       </c>
       <c r="S32" t="n">
-        <v>2266.4390369609</v>
+        <v>311.3887529906863</v>
       </c>
       <c r="T32" t="n">
-        <v>210.0395370390637</v>
+        <v>1089.257769265069</v>
       </c>
       <c r="U32" t="n">
-        <v>700.441026937258</v>
+        <v>54.59327095498438</v>
       </c>
       <c r="V32" t="n">
-        <v>36.51270945864746</v>
+        <v>4526.084147169118</v>
       </c>
       <c r="W32" t="n">
-        <v>2966.880063898158</v>
+        <v>365.9820050801923</v>
       </c>
       <c r="X32" t="n">
-        <v>246.5522464977112</v>
+        <v>541.6455312989813</v>
       </c>
       <c r="Y32" t="n">
-        <v>377.3721322326277</v>
+        <v>30.10610919492038</v>
       </c>
       <c r="Z32" t="n">
-        <v>20.51099616591683</v>
+        <v>368.1724872582903</v>
       </c>
       <c r="AA32" t="n">
-        <v>267.9448163214796</v>
+        <v>57.13778515697312</v>
       </c>
       <c r="AB32" t="n">
-        <v>38.61829972116504</v>
+        <v>55545.38654975289</v>
       </c>
       <c r="AC32" t="n">
-        <v>40326.57073618457</v>
+        <v>1851.511478908476</v>
       </c>
       <c r="AD32" t="n">
-        <v>1851.511478908476</v>
+        <v>10717.54367776678</v>
       </c>
       <c r="AE32" t="n">
-        <v>7616.543776289132</v>
+        <v>3895.546182466217</v>
       </c>
       <c r="AF32" t="n">
-        <v>2737.037909328007</v>
+        <v>353.9836456041689</v>
       </c>
       <c r="AG32" t="n">
-        <v>250.5952601978627</v>
+        <v>942.8700920917391</v>
       </c>
       <c r="AH32" t="n">
-        <v>662.4105353686335</v>
+        <v>46.18022842354326</v>
       </c>
       <c r="AI32" t="n">
-        <v>33.66634104640699</v>
+        <v>4838.412334516955</v>
       </c>
       <c r="AJ32" t="n">
-        <v>3399.44844469664</v>
+        <v>400.1649551067054</v>
       </c>
       <c r="AK32" t="n">
-        <v>284.2616012442697</v>
+        <v>605.3653036940491</v>
       </c>
       <c r="AL32" t="n">
-        <v>452.2883965814611</v>
+        <v>29.19701885790762</v>
       </c>
       <c r="AM32" t="n">
-        <v>20.30582001624316</v>
+        <v>448.1646125625164</v>
       </c>
       <c r="AN32" t="n">
-        <v>334.032769234285</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>52.48671424183164</v>
+        <v>74.34984958054372</v>
       </c>
     </row>
     <row r="33">
@@ -4559,85 +4461,82 @@
         <v>150.0930734035712</v>
       </c>
       <c r="O33" t="n">
-        <v>359.3694824692191</v>
+        <v>53822.76781792763</v>
       </c>
       <c r="P33" t="n">
-        <v>34097.55399437664</v>
+        <v>1794.086825936909</v>
       </c>
       <c r="Q33" t="n">
-        <v>1794.086825936909</v>
+        <v>9307.901650875297</v>
       </c>
       <c r="R33" t="n">
-        <v>5572.334508689076</v>
+        <v>3758.032424769887</v>
       </c>
       <c r="S33" t="n">
-        <v>2161.038571881212</v>
+        <v>341.2427489565018</v>
       </c>
       <c r="T33" t="n">
-        <v>199.9998331445223</v>
+        <v>1199.966640926338</v>
       </c>
       <c r="U33" t="n">
-        <v>661.9627717911388</v>
+        <v>60.6397696522219</v>
       </c>
       <c r="V33" t="n">
-        <v>34.39897304118448</v>
+        <v>4957.994216255061</v>
       </c>
       <c r="W33" t="n">
-        <v>2823.001343672351</v>
+        <v>401.8837912663179</v>
       </c>
       <c r="X33" t="n">
-        <v>234.3988061857067</v>
+        <v>556.8082972760121</v>
       </c>
       <c r="Y33" t="n">
-        <v>349.1850058525823</v>
+        <v>30.95455033763207</v>
       </c>
       <c r="Z33" t="n">
-        <v>20.0737277499038</v>
+        <v>379.812183210507</v>
       </c>
       <c r="AA33" t="n">
-        <v>246.2986681970912</v>
+        <v>62.26005216133591</v>
       </c>
       <c r="AB33" t="n">
-        <v>37.06967663312678</v>
+        <v>56786.47019112415</v>
       </c>
       <c r="AC33" t="n">
-        <v>37411.91130393854</v>
+        <v>1892.88608316598</v>
       </c>
       <c r="AD33" t="n">
-        <v>1892.88608316598</v>
+        <v>11110.49935146101</v>
       </c>
       <c r="AE33" t="n">
-        <v>7124.804448027429</v>
+        <v>4388.70739423045</v>
       </c>
       <c r="AF33" t="n">
-        <v>2669.708157786344</v>
+        <v>388.184618886248</v>
       </c>
       <c r="AG33" t="n">
-        <v>243.6081138290158</v>
+        <v>1193.340096971469</v>
       </c>
       <c r="AH33" t="n">
-        <v>678.1407820052179</v>
+        <v>59.77801847829635</v>
       </c>
       <c r="AI33" t="n">
-        <v>36.00162976118825</v>
+        <v>5582.048734300133</v>
       </c>
       <c r="AJ33" t="n">
-        <v>3347.848939791562</v>
+        <v>447.9610766441339</v>
       </c>
       <c r="AK33" t="n">
-        <v>279.6097435902041</v>
+        <v>612.7124945699036</v>
       </c>
       <c r="AL33" t="n">
-        <v>415.0654176464573</v>
+        <v>27.42912344356122</v>
       </c>
       <c r="AM33" t="n">
-        <v>18.65735520164878</v>
+        <v>449.8532865469212</v>
       </c>
       <c r="AN33" t="n">
-        <v>306.2894271018855</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>49.89582827237514</v>
+        <v>76.27919833662338</v>
       </c>
     </row>
     <row r="34">
@@ -4684,85 +4583,82 @@
         <v>156.4699821420496</v>
       </c>
       <c r="O34" t="n">
-        <v>371.9142151965748</v>
+        <v>54708.59281514123</v>
       </c>
       <c r="P34" t="n">
-        <v>35049.37878739319</v>
+        <v>1823.61975631088</v>
       </c>
       <c r="Q34" t="n">
-        <v>1823.61975631088</v>
+        <v>8886.377166647069</v>
       </c>
       <c r="R34" t="n">
-        <v>5334.519833094996</v>
+        <v>3581.979204824064</v>
       </c>
       <c r="S34" t="n">
-        <v>2050.702169460943</v>
+        <v>333.082839648737</v>
       </c>
       <c r="T34" t="n">
-        <v>195.029068413203</v>
+        <v>1257.876595864563</v>
       </c>
       <c r="U34" t="n">
-        <v>673.0836036009106</v>
+        <v>52.37998209108387</v>
       </c>
       <c r="V34" t="n">
-        <v>32.6312618832015</v>
+        <v>4839.859687014655</v>
       </c>
       <c r="W34" t="n">
-        <v>2723.785773061854</v>
+        <v>385.4649446296687</v>
       </c>
       <c r="X34" t="n">
-        <v>227.6603302964046</v>
+        <v>558.9162650573662</v>
       </c>
       <c r="Y34" t="n">
-        <v>355.6796807724261</v>
+        <v>27.40068671421921</v>
       </c>
       <c r="Z34" t="n">
-        <v>18.37349826351189</v>
+        <v>396.108419105977</v>
       </c>
       <c r="AA34" t="n">
-        <v>257.9398134971964</v>
+        <v>65.88949506835564</v>
       </c>
       <c r="AB34" t="n">
-        <v>39.29567196533832</v>
+        <v>58178.53671910549</v>
       </c>
       <c r="AC34" t="n">
-        <v>38085.5767610858</v>
+        <v>1939.286072561324</v>
       </c>
       <c r="AD34" t="n">
-        <v>1939.286072561324</v>
+        <v>11030.40974865922</v>
       </c>
       <c r="AE34" t="n">
-        <v>6984.07313764515</v>
+        <v>4152.99446525762</v>
       </c>
       <c r="AF34" t="n">
-        <v>2560.649750535419</v>
+        <v>365.9713775112202</v>
       </c>
       <c r="AG34" t="n">
-        <v>231.7792967931515</v>
+        <v>1057.187751778653</v>
       </c>
       <c r="AH34" t="n">
-        <v>617.6099359962211</v>
+        <v>49.92777883122292</v>
       </c>
       <c r="AI34" t="n">
-        <v>31.23735302455935</v>
+        <v>5210.185800478224</v>
       </c>
       <c r="AJ34" t="n">
-        <v>3178.25968653164</v>
+        <v>415.9007665104868</v>
       </c>
       <c r="AK34" t="n">
-        <v>263.0166498177109</v>
+        <v>615.6245981863532</v>
       </c>
       <c r="AL34" t="n">
-        <v>409.4245963418973</v>
+        <v>28.95331657348834</v>
       </c>
       <c r="AM34" t="n">
-        <v>19.51594426190302</v>
+        <v>465.2230230877165</v>
       </c>
       <c r="AN34" t="n">
-        <v>307.6433914463795</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>50.9610457469571</v>
+        <v>80.47329569779471</v>
       </c>
     </row>
     <row r="35">
@@ -4809,85 +4705,82 @@
         <v>147.5658952231138</v>
       </c>
       <c r="O35" t="n">
-        <v>376.0758049124979</v>
+        <v>56603.37935345597</v>
       </c>
       <c r="P35" t="n">
-        <v>34441.89670690057</v>
+        <v>1886.776371556948</v>
       </c>
       <c r="Q35" t="n">
-        <v>1886.776371556948</v>
+        <v>9575.071536701107</v>
       </c>
       <c r="R35" t="n">
-        <v>5538.99413750522</v>
+        <v>3929.682023160025</v>
       </c>
       <c r="S35" t="n">
-        <v>2201.874854308477</v>
+        <v>359.8823153806982</v>
       </c>
       <c r="T35" t="n">
-        <v>203.7788214587562</v>
+        <v>1455.840575783298</v>
       </c>
       <c r="U35" t="n">
-        <v>773.4137504345417</v>
+        <v>67.42638375412785</v>
       </c>
       <c r="V35" t="n">
-        <v>38.07801321912757</v>
+        <v>5385.516234652703</v>
       </c>
       <c r="W35" t="n">
-        <v>2975.288604743018</v>
+        <v>427.3075628868292</v>
       </c>
       <c r="X35" t="n">
-        <v>241.8568346778837</v>
+        <v>569.1620909489038</v>
       </c>
       <c r="Y35" t="n">
-        <v>340.899591005442</v>
+        <v>34.39662275019526</v>
       </c>
       <c r="Z35" t="n">
-        <v>19.58028305526464</v>
+        <v>387.542100169468</v>
       </c>
       <c r="AA35" t="n">
-        <v>239.1904221178341</v>
+        <v>66.11362310304747</v>
       </c>
       <c r="AB35" t="n">
-        <v>37.19867169963851</v>
+        <v>58677.54153910239</v>
       </c>
       <c r="AC35" t="n">
-        <v>36578.73638880897</v>
+        <v>1955.912627651878</v>
       </c>
       <c r="AD35" t="n">
-        <v>1955.912627651878</v>
+        <v>11183.8505936141</v>
       </c>
       <c r="AE35" t="n">
-        <v>6849.65830454843</v>
+        <v>4378.04791701377</v>
       </c>
       <c r="AF35" t="n">
-        <v>2623.968119407893</v>
+        <v>404.5918092675207</v>
       </c>
       <c r="AG35" t="n">
-        <v>244.1414400133741</v>
+        <v>1227.064143323526</v>
       </c>
       <c r="AH35" t="n">
-        <v>719.8515027995395</v>
+        <v>61.01710968970521</v>
       </c>
       <c r="AI35" t="n">
-        <v>38.08240799460669</v>
+        <v>5605.117858790998</v>
       </c>
       <c r="AJ35" t="n">
-        <v>3343.819622207433</v>
+        <v>465.6121227342541</v>
       </c>
       <c r="AK35" t="n">
-        <v>282.2238480079808</v>
+        <v>635.3915969735696</v>
       </c>
       <c r="AL35" t="n">
-        <v>398.5945876223915</v>
+        <v>34.20215751862885</v>
       </c>
       <c r="AM35" t="n">
-        <v>20.29589585001118</v>
+        <v>456.9235892918544</v>
       </c>
       <c r="AN35" t="n">
-        <v>291.2796409842419</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>48.01758790037478</v>
+        <v>77.15988058215484</v>
       </c>
     </row>
     <row r="36">
@@ -4934,85 +4827,82 @@
         <v>152.4010307691759</v>
       </c>
       <c r="O36" t="n">
-        <v>353.8555875255735</v>
+        <v>52802.06699072345</v>
       </c>
       <c r="P36" t="n">
-        <v>33370.43744151852</v>
+        <v>1760.067037926837</v>
       </c>
       <c r="Q36" t="n">
-        <v>1760.067037926837</v>
+        <v>8857.312107433374</v>
       </c>
       <c r="R36" t="n">
-        <v>5395.841859638194</v>
+        <v>3648.538861169307</v>
       </c>
       <c r="S36" t="n">
-        <v>2158.591495694409</v>
+        <v>336.8974964167911</v>
       </c>
       <c r="T36" t="n">
-        <v>201.6070323752105</v>
+        <v>1150.183869275003</v>
       </c>
       <c r="U36" t="n">
-        <v>656.1914151278836</v>
+        <v>61.32878239645791</v>
       </c>
       <c r="V36" t="n">
-        <v>36.45247987742297</v>
+        <v>4798.724475983729</v>
       </c>
       <c r="W36" t="n">
-        <v>2814.782910822293</v>
+        <v>398.2262700469176</v>
       </c>
       <c r="X36" t="n">
-        <v>238.0595122526335</v>
+        <v>551.1046208446751</v>
       </c>
       <c r="Y36" t="n">
-        <v>339.7270895972417</v>
+        <v>33.81978786374301</v>
       </c>
       <c r="Z36" t="n">
-        <v>19.67899119332054</v>
+        <v>381.2988203628357</v>
       </c>
       <c r="AA36" t="n">
-        <v>241.1731951758737</v>
+        <v>58.675835148659</v>
       </c>
       <c r="AB36" t="n">
-        <v>35.1239867042544</v>
+        <v>55584.84403017079</v>
       </c>
       <c r="AC36" t="n">
-        <v>38095.44059119253</v>
+        <v>1852.827158486616</v>
       </c>
       <c r="AD36" t="n">
-        <v>1852.827158486616</v>
+        <v>10460.35379681419</v>
       </c>
       <c r="AE36" t="n">
-        <v>7078.824706790107</v>
+        <v>4037.687586237818</v>
       </c>
       <c r="AF36" t="n">
-        <v>2650.571381987178</v>
+        <v>373.5539502141063</v>
       </c>
       <c r="AG36" t="n">
-        <v>245.2389430262645</v>
+        <v>989.6968266894916</v>
       </c>
       <c r="AH36" t="n">
-        <v>641.2086023259138</v>
+        <v>53.6392813760793</v>
       </c>
       <c r="AI36" t="n">
-        <v>35.76699881438044</v>
+        <v>5027.387491116721</v>
       </c>
       <c r="AJ36" t="n">
-        <v>3291.779984313092</v>
+        <v>427.1906239631639</v>
       </c>
       <c r="AK36" t="n">
-        <v>281.0059418406449</v>
+        <v>592.0724526418229</v>
       </c>
       <c r="AL36" t="n">
-        <v>415.7838875479385</v>
+        <v>30.29565816501718</v>
       </c>
       <c r="AM36" t="n">
-        <v>20.48543158810321</v>
+        <v>438.5764770027432</v>
       </c>
       <c r="AN36" t="n">
-        <v>312.7737317918447</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>52.39159427416374</v>
+        <v>76.28423379080364</v>
       </c>
     </row>
     <row r="37">
@@ -5059,85 +4949,82 @@
         <v>152.5575165745567</v>
       </c>
       <c r="O37" t="n">
-        <v>362.9568281144799</v>
+        <v>53135.05877849244</v>
       </c>
       <c r="P37" t="n">
-        <v>32719.29766541317</v>
+        <v>1771.164376895907</v>
       </c>
       <c r="Q37" t="n">
-        <v>1771.164376895907</v>
+        <v>9016.512107076418</v>
       </c>
       <c r="R37" t="n">
-        <v>5283.133389268341</v>
+        <v>3598.617038636315</v>
       </c>
       <c r="S37" t="n">
-        <v>2079.667335487044</v>
+        <v>331.4785829556491</v>
       </c>
       <c r="T37" t="n">
-        <v>194.8419513040855</v>
+        <v>1367.479670778953</v>
       </c>
       <c r="U37" t="n">
-        <v>768.2218167656901</v>
+        <v>66.55641564870788</v>
       </c>
       <c r="V37" t="n">
-        <v>38.86886471451608</v>
+        <v>4966.088799468052</v>
       </c>
       <c r="W37" t="n">
-        <v>2847.889152252734</v>
+        <v>398.0359150732932</v>
       </c>
       <c r="X37" t="n">
-        <v>233.7108160186015</v>
+        <v>542.6297901890733</v>
       </c>
       <c r="Y37" t="n">
-        <v>334.2364288719907</v>
+        <v>34.33762136273243</v>
       </c>
       <c r="Z37" t="n">
-        <v>20.8192288394828</v>
+        <v>374.6844453185716</v>
       </c>
       <c r="AA37" t="n">
-        <v>234.3625920390608</v>
+        <v>64.34784469551751</v>
       </c>
       <c r="AB37" t="n">
-        <v>37.73705654225074</v>
+        <v>57011.92453500084</v>
       </c>
       <c r="AC37" t="n">
-        <v>36400.82357275277</v>
+        <v>1900.396126164475</v>
       </c>
       <c r="AD37" t="n">
-        <v>1900.396126164475</v>
+        <v>11110.34148548944</v>
       </c>
       <c r="AE37" t="n">
-        <v>6856.749123472895</v>
+        <v>4364.446014716443</v>
       </c>
       <c r="AF37" t="n">
-        <v>2683.048542316024</v>
+        <v>391.4213205079059</v>
       </c>
       <c r="AG37" t="n">
-        <v>246.2386727654647</v>
+        <v>1204.811713430943</v>
       </c>
       <c r="AH37" t="n">
-        <v>739.2533083649564</v>
+        <v>59.91404714531027</v>
       </c>
       <c r="AI37" t="n">
-        <v>38.78186618074355</v>
+        <v>5569.264235053255</v>
       </c>
       <c r="AJ37" t="n">
-        <v>3422.301850680981</v>
+        <v>451.3383082103338</v>
       </c>
       <c r="AK37" t="n">
-        <v>285.0205389462082</v>
+        <v>617.1027898636964</v>
       </c>
       <c r="AL37" t="n">
-        <v>394.6091192475353</v>
+        <v>33.2129258589737</v>
       </c>
       <c r="AM37" t="n">
-        <v>20.86459962386763</v>
+        <v>442.4671569509462</v>
       </c>
       <c r="AN37" t="n">
-        <v>290.393868614497</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>47.07826722471643</v>
+        <v>76.54549762571321</v>
       </c>
     </row>
     <row r="38">
@@ -5184,85 +5071,82 @@
         <v>148.9081636403221</v>
       </c>
       <c r="O38" t="n">
-        <v>367.0994178573963</v>
+        <v>51977.82301974911</v>
       </c>
       <c r="P38" t="n">
-        <v>34198.35044203352</v>
+        <v>1732.593157529054</v>
       </c>
       <c r="Q38" t="n">
-        <v>1732.593157529054</v>
+        <v>8555.988871175754</v>
       </c>
       <c r="R38" t="n">
-        <v>5330.411247435476</v>
+        <v>3520.974134294133</v>
       </c>
       <c r="S38" t="n">
-        <v>2141.10214670426</v>
+        <v>325.4068386683144</v>
       </c>
       <c r="T38" t="n">
-        <v>201.3296382823091</v>
+        <v>1241.747293825719</v>
       </c>
       <c r="U38" t="n">
-        <v>741.0742711506272</v>
+        <v>60.0137607479202</v>
       </c>
       <c r="V38" t="n">
-        <v>38.03211193115153</v>
+        <v>4762.72381776559</v>
       </c>
       <c r="W38" t="n">
-        <v>2882.176417854887</v>
+        <v>385.4235174485542</v>
       </c>
       <c r="X38" t="n">
-        <v>239.3617502134606</v>
+        <v>528.1390404921659</v>
       </c>
       <c r="Y38" t="n">
-        <v>338.1164282073927</v>
+        <v>31.4840051868474</v>
       </c>
       <c r="Z38" t="n">
-        <v>19.45777447893612</v>
+        <v>373.7089733201278</v>
       </c>
       <c r="AA38" t="n">
-        <v>246.6407516199978</v>
+        <v>59.97741618381745</v>
       </c>
       <c r="AB38" t="n">
-        <v>36.82102461743802</v>
+        <v>55360.85271669107</v>
       </c>
       <c r="AC38" t="n">
-        <v>36268.31131911927</v>
+        <v>1845.363561757784</v>
       </c>
       <c r="AD38" t="n">
-        <v>1845.363561757784</v>
+        <v>10341.47314186523</v>
       </c>
       <c r="AE38" t="n">
-        <v>6545.398503347935</v>
+        <v>4116.516456272436</v>
       </c>
       <c r="AF38" t="n">
-        <v>2547.62263784554</v>
+        <v>368.9028679365276</v>
       </c>
       <c r="AG38" t="n">
-        <v>233.261534284386</v>
+        <v>1114.883499317885</v>
       </c>
       <c r="AH38" t="n">
-        <v>693.266716678841</v>
+        <v>55.87224231224646</v>
       </c>
       <c r="AI38" t="n">
-        <v>36.12662839080799</v>
+        <v>5231.399997045944</v>
       </c>
       <c r="AJ38" t="n">
-        <v>3240.889354524381</v>
+        <v>424.7806144615492</v>
       </c>
       <c r="AK38" t="n">
-        <v>269.388162675194</v>
+        <v>614.4098261958519</v>
       </c>
       <c r="AL38" t="n">
-        <v>403.1833432034105</v>
+        <v>32.40217384396091</v>
       </c>
       <c r="AM38" t="n">
-        <v>19.01994498800225</v>
+        <v>446.2456343421083</v>
       </c>
       <c r="AN38" t="n">
-        <v>296.1737245864081</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>47.54364235428379</v>
+        <v>76.19811793732136</v>
       </c>
     </row>
     <row r="39">
@@ -5309,85 +5193,82 @@
         <v>145.0686820632357</v>
       </c>
       <c r="O39" t="n">
-        <v>369.3470568853445</v>
+        <v>53054.74443351129</v>
       </c>
       <c r="P39" t="n">
-        <v>35986.36866609822</v>
+        <v>1768.489737352718</v>
       </c>
       <c r="Q39" t="n">
-        <v>1768.489737352718</v>
+        <v>8355.464990677305</v>
       </c>
       <c r="R39" t="n">
-        <v>5507.133432535349</v>
+        <v>3466.92445092338</v>
       </c>
       <c r="S39" t="n">
-        <v>2237.334181488232</v>
+        <v>315.4970911447265</v>
       </c>
       <c r="T39" t="n">
-        <v>204.7240888934671</v>
+        <v>1246.571750618187</v>
       </c>
       <c r="U39" t="n">
-        <v>792.340704781799</v>
+        <v>60.06819142851183</v>
       </c>
       <c r="V39" t="n">
-        <v>38.74430486248891</v>
+        <v>4713.49881550289</v>
       </c>
       <c r="W39" t="n">
-        <v>3029.674886270031</v>
+        <v>375.5676752909077</v>
       </c>
       <c r="X39" t="n">
-        <v>243.468393755956</v>
+        <v>531.6992225222461</v>
       </c>
       <c r="Y39" t="n">
-        <v>354.5707647403918</v>
+        <v>29.83347672269494</v>
       </c>
       <c r="Z39" t="n">
-        <v>20.15396077962124</v>
+        <v>368.7131738709851</v>
       </c>
       <c r="AA39" t="n">
-        <v>250.6720140050504</v>
+        <v>55.69133517990431</v>
       </c>
       <c r="AB39" t="n">
-        <v>36.95211226062492</v>
+        <v>56100.40510970107</v>
       </c>
       <c r="AC39" t="n">
-        <v>37962.00160656864</v>
+        <v>1870.008812983817</v>
       </c>
       <c r="AD39" t="n">
-        <v>1870.008812983817</v>
+        <v>10228.43472590622</v>
       </c>
       <c r="AE39" t="n">
-        <v>6797.115230075017</v>
+        <v>3993.125973856918</v>
       </c>
       <c r="AF39" t="n">
-        <v>2580.070117347822</v>
+        <v>355.9669075609154</v>
       </c>
       <c r="AG39" t="n">
-        <v>234.9944554450002</v>
+        <v>1123.252467923468</v>
       </c>
       <c r="AH39" t="n">
-        <v>732.1227159993002</v>
+        <v>51.6132955641182</v>
       </c>
       <c r="AI39" t="n">
-        <v>35.28530910919569</v>
+        <v>5116.384907343035</v>
       </c>
       <c r="AJ39" t="n">
-        <v>3312.192833347122</v>
+        <v>407.5817444810007</v>
       </c>
       <c r="AK39" t="n">
-        <v>270.2797645541958</v>
+        <v>592.7791115075946</v>
       </c>
       <c r="AL39" t="n">
-        <v>404.8721258278568</v>
+        <v>29.66752881472848</v>
       </c>
       <c r="AM39" t="n">
-        <v>19.54080150512897</v>
+        <v>436.5762121623201</v>
       </c>
       <c r="AN39" t="n">
-        <v>302.160880252381</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>46.95099008883072</v>
+        <v>68.8374750748209</v>
       </c>
     </row>
   </sheetData>
